--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_6_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_6_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>684462.311578996</v>
+        <v>610621.118643354</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>405687.0519298022</v>
+        <v>405687.0519298027</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7869734.726073006</v>
+        <v>7869734.726073004</v>
       </c>
     </row>
     <row r="11">
@@ -661,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>190.3453970742847</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -718,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -737,31 +737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>62.86349518004438</v>
       </c>
       <c r="E3" t="n">
-        <v>78.32097487848354</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,23 +895,23 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>52.42556848774763</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
+      <c r="G5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>72.47049842454879</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>91.01634947177179</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>4.171352940466351</v>
       </c>
     </row>
     <row r="7">
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1141,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1177,31 +1177,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>202.2946864288972</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -1274,13 +1274,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>34.66067414728059</v>
       </c>
     </row>
     <row r="10">
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>338.1855217912105</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>414.2926691378088</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>39.0526421414349</v>
       </c>
       <c r="I11" t="n">
         <v>171.5352284535379</v>
@@ -1417,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>86.42041023393332</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.674275242386</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1460,13 +1460,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.8030829366063</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>107.0159873637655</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>70.78957724245151</v>
@@ -1496,19 +1496,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>66.60350559207137</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>161.6448423772186</v>
       </c>
       <c r="T12" t="n">
-        <v>51.12519878778868</v>
+        <v>197.9863995095175</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>75.83000041467257</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>158.1988625129318</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>141.8250664795777</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>226.0096940321479</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>28.62459273534546</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>180.3200131640212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>143.6325102911032</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>329.1304393464753</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>186.0031364379248</v>
       </c>
       <c r="T14" t="n">
-        <v>218.674275242386</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2648474376504</v>
+        <v>80.79671488967601</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1688,7 +1688,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>47.6607413745174</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>76.44886651312626</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>136.8030829366063</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>70.78957724245151</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>66.60350559207139</v>
       </c>
       <c r="S15" t="n">
         <v>161.6448423772186</v>
@@ -1754,7 +1754,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>164.4816480396906</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>228.2062988327026</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>135.3351141170535</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,10 +1852,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>327.7165051416146</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>171.5352284535379</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>186.0031364379248</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>218.674275242386</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2648474376504</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -1931,19 +1931,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.8030829366063</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>107.0159873637655</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>70.78957724245151</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>66.60350559207139</v>
       </c>
       <c r="S18" t="n">
         <v>161.6448423772186</v>
@@ -1979,16 +1979,16 @@
         <v>197.9863995095175</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9058271976456</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>96.28178133723772</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>81.34720132736796</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>141.8250664795777</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>193.8209438199395</v>
       </c>
       <c r="V19" t="n">
-        <v>112.8092202879159</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>123.659273554327</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>414.2926691378088</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>86.42041023393331</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>186.0031364379248</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>218.674275242386</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2648474376504</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>187.2368676195767</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2168,7 +2168,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>97.30085757351381</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -2177,10 +2177,10 @@
         <v>136.8030829366063</v>
       </c>
       <c r="H21" t="n">
-        <v>107.0159873637655</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>70.78957724245151</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>66.60350559207139</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>197.9863995095175</v>
       </c>
       <c r="U21" t="n">
-        <v>46.57295960765337</v>
+        <v>225.9058271976456</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2225,7 +2225,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2244,10 +2244,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>158.1988625129318</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>27.09564397881709</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2298,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>228.2062988327028</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2332,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2377,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>105.0839683962665</v>
       </c>
       <c r="W23" t="n">
-        <v>323.9918595228955</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2411,13 +2411,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H24" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>67.00913094683239</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>162.5776147681365</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2602,22 +2602,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>16.1010098121322</v>
+        <v>309.5606912716569</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2772,10 +2772,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W28" t="n">
-        <v>234.4970761400735</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2800,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>375.6379053011162</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>75.68973921670441</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>29.16584928708748</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>98.92465732800086</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>81.11593663322328</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,25 +3076,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3125,7 +3125,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H33" t="n">
-        <v>104.3883541553069</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
         <v>61.42221998250818</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.96159132124588</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>225.0351054580843</v>
@@ -3246,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>104.5113366705979</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>254.3271660412493</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3444,10 +3444,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.0115294480439</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3480,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,19 +3505,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>61.54863046645518</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>216.4483203576578</v>
@@ -3562,13 +3562,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>231.7173056877558</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3599,10 +3599,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>94.63926978364033</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.7498680634315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>255.8940731710743</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>6.305787840852513</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>46.60564476255257</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>150.5540262346244</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3994,10 +3994,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>113.2788623889628</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>244.7200466727674</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4140,16 +4140,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>59.66385641544514</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>467.067986854209</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C2" t="n">
-        <v>467.067986854209</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D2" t="n">
-        <v>223.6192102101089</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E2" t="n">
-        <v>223.6192102101089</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F2" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4366,16 +4366,16 @@
         <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>467.067986854209</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>467.067986854209</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y2" t="n">
-        <v>467.067986854209</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0815197256143</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C3" t="n">
-        <v>588.0815197256143</v>
+        <v>82.77962309005554</v>
       </c>
       <c r="D3" t="n">
-        <v>588.0815197256143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N3" t="n">
-        <v>726.4525409563269</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P3" t="n">
         <v>964.0571555106362</v>
@@ -4442,19 +4442,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y3" t="n">
-        <v>756.2968567456824</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="4">
@@ -4506,25 +4506,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C5" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D5" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E5" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F5" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4594,25 +4594,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>518.2486856454962</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>518.2486856454962</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>518.2486856454962</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>518.2486856454962</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>518.2486856454962</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
-        <v>518.2486856454962</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>343.4227147053767</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U6" t="n">
-        <v>395.3479803358136</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V6" t="n">
-        <v>395.3479803358136</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W6" t="n">
-        <v>395.3479803358136</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="X6" t="n">
-        <v>187.4964801302808</v>
+        <v>347.6362025240296</v>
       </c>
       <c r="Y6" t="n">
-        <v>187.4964801302808</v>
+        <v>343.4227147053767</v>
       </c>
     </row>
     <row r="7">
@@ -4749,7 +4749,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
         <v>19.28114311021272</v>
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T8" t="n">
-        <v>749.627473042513</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U8" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V8" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W8" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="X8" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4889,46 +4889,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>621.8469951458151</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U9" t="n">
-        <v>259.0600686093459</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V9" t="n">
-        <v>23.90796037760316</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W9" t="n">
-        <v>23.90796037760316</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X9" t="n">
-        <v>23.90796037760316</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y9" t="n">
-        <v>23.90796037760316</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5001,13 +5001,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1722.79399573593</v>
+        <v>1470.1544984804</v>
       </c>
       <c r="C11" t="n">
-        <v>1353.831478795518</v>
+        <v>1470.1544984804</v>
       </c>
       <c r="D11" t="n">
-        <v>1012.229941632679</v>
+        <v>1470.1544984804</v>
       </c>
       <c r="E11" t="n">
-        <v>626.4416890344348</v>
+        <v>1084.366245882156</v>
       </c>
       <c r="F11" t="n">
-        <v>215.4557842448272</v>
+        <v>673.3803410925482</v>
       </c>
       <c r="G11" t="n">
-        <v>215.4557842448272</v>
+        <v>254.9028975190039</v>
       </c>
       <c r="H11" t="n">
         <v>215.4557842448272</v>
       </c>
       <c r="I11" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="J11" t="n">
-        <v>115.2290882856226</v>
+        <v>115.2290882856225</v>
       </c>
       <c r="K11" t="n">
-        <v>345.4437346953284</v>
+        <v>345.4437346953283</v>
       </c>
       <c r="L11" t="n">
-        <v>683.3219880803409</v>
+        <v>683.3219880803408</v>
       </c>
       <c r="M11" t="n">
         <v>1075.883192613821</v>
@@ -5056,37 +5056,37 @@
         <v>1460.164450300943</v>
       </c>
       <c r="O11" t="n">
-        <v>1777.842707170708</v>
+        <v>1777.842707170707</v>
       </c>
       <c r="P11" t="n">
-        <v>2011.299366755287</v>
+        <v>2011.299366755286</v>
       </c>
       <c r="Q11" t="n">
         <v>2109.393835800051</v>
       </c>
       <c r="R11" t="n">
-        <v>2109.393835800051</v>
+        <v>2022.100492129411</v>
       </c>
       <c r="S11" t="n">
-        <v>2109.393835800051</v>
+        <v>2022.100492129411</v>
       </c>
       <c r="T11" t="n">
-        <v>2109.393835800051</v>
+        <v>1801.217385823971</v>
       </c>
       <c r="U11" t="n">
-        <v>2109.393835800051</v>
+        <v>1801.217385823971</v>
       </c>
       <c r="V11" t="n">
-        <v>2109.393835800051</v>
+        <v>1470.1544984804</v>
       </c>
       <c r="W11" t="n">
-        <v>2109.393835800051</v>
+        <v>1470.1544984804</v>
       </c>
       <c r="X11" t="n">
-        <v>2109.393835800051</v>
+        <v>1470.1544984804</v>
       </c>
       <c r="Y11" t="n">
-        <v>2109.393835800051</v>
+        <v>1470.1544984804</v>
       </c>
     </row>
     <row r="12">
@@ -5096,40 +5096,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>989.1338413064683</v>
+        <v>596.3173941410586</v>
       </c>
       <c r="C12" t="n">
-        <v>814.6808120253413</v>
+        <v>421.8643648599316</v>
       </c>
       <c r="D12" t="n">
-        <v>665.74640236409</v>
+        <v>272.9299551986803</v>
       </c>
       <c r="E12" t="n">
-        <v>506.5089473586346</v>
+        <v>113.6925001932248</v>
       </c>
       <c r="F12" t="n">
-        <v>359.9743893855196</v>
+        <v>113.6925001932248</v>
       </c>
       <c r="G12" t="n">
-        <v>221.7894571263213</v>
+        <v>113.6925001932248</v>
       </c>
       <c r="H12" t="n">
         <v>113.6925001932248</v>
       </c>
       <c r="I12" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="J12" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="K12" t="n">
-        <v>253.941029982967</v>
+        <v>162.8271385329672</v>
       </c>
       <c r="L12" t="n">
-        <v>508.959781349409</v>
+        <v>508.9597813494086</v>
       </c>
       <c r="M12" t="n">
-        <v>964.8594711344645</v>
+        <v>964.859471134464</v>
       </c>
       <c r="N12" t="n">
         <v>1448.532482523722</v>
@@ -5144,28 +5144,28 @@
         <v>2109.393835800051</v>
       </c>
       <c r="R12" t="n">
-        <v>2042.117567525232</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="S12" t="n">
-        <v>1878.839948962385</v>
+        <v>1946.116217237204</v>
       </c>
       <c r="T12" t="n">
-        <v>1827.198334025225</v>
+        <v>1746.129955106378</v>
       </c>
       <c r="U12" t="n">
-        <v>1827.198334025225</v>
+        <v>1669.533995091557</v>
       </c>
       <c r="V12" t="n">
-        <v>1827.198334025225</v>
+        <v>1434.381886859815</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.960977297023</v>
+        <v>1180.144530131613</v>
       </c>
       <c r="X12" t="n">
-        <v>1365.10947709149</v>
+        <v>972.2930299260804</v>
       </c>
       <c r="Y12" t="n">
-        <v>1157.349178326536</v>
+        <v>764.5327311611265</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>345.2423504458087</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="C13" t="n">
-        <v>345.2423504458087</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="D13" t="n">
-        <v>345.2423504458087</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="E13" t="n">
-        <v>345.2423504458087</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="F13" t="n">
-        <v>345.2423504458087</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="G13" t="n">
-        <v>345.2423504458087</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="H13" t="n">
-        <v>185.4455196246654</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="I13" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="J13" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="K13" t="n">
-        <v>72.25456008701801</v>
+        <v>72.25456008701798</v>
       </c>
       <c r="L13" t="n">
-        <v>166.2559978081031</v>
+        <v>166.255997808103</v>
       </c>
       <c r="M13" t="n">
-        <v>275.7564570053806</v>
+        <v>275.7564570053805</v>
       </c>
       <c r="N13" t="n">
-        <v>388.0878564503603</v>
+        <v>388.0878564503602</v>
       </c>
       <c r="O13" t="n">
-        <v>475.8277896871618</v>
+        <v>475.8277896871617</v>
       </c>
       <c r="P13" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="Q13" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="R13" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="S13" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="T13" t="n">
-        <v>527.3837778842139</v>
+        <v>299.0911576497209</v>
       </c>
       <c r="U13" t="n">
-        <v>527.3837778842139</v>
+        <v>299.0911576497209</v>
       </c>
       <c r="V13" t="n">
-        <v>527.3837778842139</v>
+        <v>270.1774276140184</v>
       </c>
       <c r="W13" t="n">
-        <v>527.3837778842139</v>
+        <v>270.1774276140184</v>
       </c>
       <c r="X13" t="n">
-        <v>527.3837778842139</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="Y13" t="n">
-        <v>345.2423504458087</v>
+        <v>42.18787671600102</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>187.2712204443881</v>
+        <v>1118.69681715986</v>
       </c>
       <c r="C14" t="n">
-        <v>42.18787671600103</v>
+        <v>1118.69681715986</v>
       </c>
       <c r="D14" t="n">
-        <v>42.18787671600103</v>
+        <v>760.4311185531092</v>
       </c>
       <c r="E14" t="n">
-        <v>42.18787671600103</v>
+        <v>374.642865954865</v>
       </c>
       <c r="F14" t="n">
-        <v>42.18787671600103</v>
+        <v>374.642865954865</v>
       </c>
       <c r="G14" t="n">
-        <v>42.18787671600103</v>
+        <v>374.642865954865</v>
       </c>
       <c r="H14" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="I14" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="J14" t="n">
-        <v>115.2290882856225</v>
+        <v>115.2290882856226</v>
       </c>
       <c r="K14" t="n">
-        <v>345.4437346953285</v>
+        <v>345.4437346953284</v>
       </c>
       <c r="L14" t="n">
-        <v>683.321988080341</v>
+        <v>683.3219880803408</v>
       </c>
       <c r="M14" t="n">
         <v>1075.883192613821</v>
@@ -5293,10 +5293,10 @@
         <v>1460.164450300943</v>
       </c>
       <c r="O14" t="n">
-        <v>1777.842707170708</v>
+        <v>1777.842707170707</v>
       </c>
       <c r="P14" t="n">
-        <v>2011.299366755287</v>
+        <v>2011.299366755286</v>
       </c>
       <c r="Q14" t="n">
         <v>2109.393835800051</v>
@@ -5305,25 +5305,25 @@
         <v>2109.393835800051</v>
       </c>
       <c r="S14" t="n">
-        <v>2109.393835800051</v>
+        <v>1921.511879802147</v>
       </c>
       <c r="T14" t="n">
-        <v>1888.510729494611</v>
+        <v>1921.511879802147</v>
       </c>
       <c r="U14" t="n">
-        <v>1634.707853294964</v>
+        <v>1839.899036479242</v>
       </c>
       <c r="V14" t="n">
-        <v>1303.644965951394</v>
+        <v>1508.836149135671</v>
       </c>
       <c r="W14" t="n">
-        <v>950.8763106812796</v>
+        <v>1508.836149135671</v>
       </c>
       <c r="X14" t="n">
-        <v>577.4105524201998</v>
+        <v>1508.836149135671</v>
       </c>
       <c r="Y14" t="n">
-        <v>187.2712204443881</v>
+        <v>1118.69681715986</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>652.4859486807875</v>
+        <v>377.4493816410136</v>
       </c>
       <c r="C15" t="n">
-        <v>478.0329193996605</v>
+        <v>329.3072186364506</v>
       </c>
       <c r="D15" t="n">
-        <v>329.0985097384092</v>
+        <v>180.3728089751993</v>
       </c>
       <c r="E15" t="n">
-        <v>329.0985097384092</v>
+        <v>180.3728089751993</v>
       </c>
       <c r="F15" t="n">
-        <v>251.8774324524231</v>
+        <v>180.3728089751993</v>
       </c>
       <c r="G15" t="n">
-        <v>113.6925001932248</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="H15" t="n">
-        <v>113.6925001932248</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="I15" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="J15" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="K15" t="n">
-        <v>42.18787671600103</v>
+        <v>253.941029982967</v>
       </c>
       <c r="L15" t="n">
-        <v>388.3205195324424</v>
+        <v>600.0736727994083</v>
       </c>
       <c r="M15" t="n">
-        <v>844.2202093174978</v>
+        <v>1055.973362584464</v>
       </c>
       <c r="N15" t="n">
-        <v>1327.893220706756</v>
+        <v>1539.646373973721</v>
       </c>
       <c r="O15" t="n">
-        <v>1703.943854684126</v>
+        <v>1915.697007951092</v>
       </c>
       <c r="P15" t="n">
-        <v>1988.754573983085</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="Q15" t="n">
         <v>2109.393835800051</v>
       </c>
       <c r="R15" t="n">
-        <v>2109.393835800051</v>
+        <v>2042.117567525231</v>
       </c>
       <c r="S15" t="n">
-        <v>1946.116217237204</v>
+        <v>1878.839948962384</v>
       </c>
       <c r="T15" t="n">
-        <v>1746.129955106379</v>
+        <v>1678.853686831559</v>
       </c>
       <c r="U15" t="n">
-        <v>1517.942250866333</v>
+        <v>1450.665982591513</v>
       </c>
       <c r="V15" t="n">
-        <v>1282.79014263459</v>
+        <v>1215.51387435977</v>
       </c>
       <c r="W15" t="n">
-        <v>1028.552785906388</v>
+        <v>961.2765176315684</v>
       </c>
       <c r="X15" t="n">
-        <v>820.7012857008556</v>
+        <v>753.4250174260355</v>
       </c>
       <c r="Y15" t="n">
-        <v>820.7012857008556</v>
+        <v>545.6647186610817</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>361.2406990562437</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="C16" t="n">
-        <v>192.3045161283368</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="D16" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="E16" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="F16" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="G16" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="H16" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="I16" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="J16" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="K16" t="n">
-        <v>72.25456008701801</v>
+        <v>72.25456008701798</v>
       </c>
       <c r="L16" t="n">
-        <v>166.2559978081031</v>
+        <v>166.255997808103</v>
       </c>
       <c r="M16" t="n">
-        <v>275.7564570053806</v>
+        <v>275.7564570053805</v>
       </c>
       <c r="N16" t="n">
-        <v>388.0878564503603</v>
+        <v>388.0878564503602</v>
       </c>
       <c r="O16" t="n">
-        <v>475.8277896871618</v>
+        <v>475.8277896871617</v>
       </c>
       <c r="P16" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="Q16" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="R16" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="S16" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="T16" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="U16" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="V16" t="n">
-        <v>527.3837778842139</v>
+        <v>272.6992896783269</v>
       </c>
       <c r="W16" t="n">
-        <v>527.3837778842139</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="X16" t="n">
-        <v>527.3837778842139</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="Y16" t="n">
-        <v>527.3837778842139</v>
+        <v>42.18787671600102</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>215.4557842448272</v>
+        <v>759.002902184563</v>
       </c>
       <c r="C17" t="n">
-        <v>215.4557842448272</v>
+        <v>759.002902184563</v>
       </c>
       <c r="D17" t="n">
-        <v>215.4557842448272</v>
+        <v>759.002902184563</v>
       </c>
       <c r="E17" t="n">
-        <v>215.4557842448272</v>
+        <v>373.2146495863188</v>
       </c>
       <c r="F17" t="n">
-        <v>215.4557842448272</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="G17" t="n">
-        <v>215.4557842448272</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="H17" t="n">
-        <v>215.4557842448272</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="I17" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="J17" t="n">
         <v>115.2290882856225</v>
       </c>
       <c r="K17" t="n">
-        <v>345.4437346953285</v>
+        <v>345.4437346953283</v>
       </c>
       <c r="L17" t="n">
-        <v>683.321988080341</v>
+        <v>683.3219880803408</v>
       </c>
       <c r="M17" t="n">
         <v>1075.883192613821</v>
@@ -5530,10 +5530,10 @@
         <v>1460.164450300943</v>
       </c>
       <c r="O17" t="n">
-        <v>1777.842707170708</v>
+        <v>1777.842707170707</v>
       </c>
       <c r="P17" t="n">
-        <v>2011.299366755287</v>
+        <v>2011.299366755286</v>
       </c>
       <c r="Q17" t="n">
         <v>2109.393835800051</v>
@@ -5542,25 +5542,25 @@
         <v>2109.393835800051</v>
       </c>
       <c r="S17" t="n">
-        <v>1921.511879802148</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="T17" t="n">
-        <v>1700.628773496707</v>
+        <v>1888.510729494611</v>
       </c>
       <c r="U17" t="n">
-        <v>1446.82589729706</v>
+        <v>1888.510729494611</v>
       </c>
       <c r="V17" t="n">
-        <v>1115.76300995349</v>
+        <v>1888.510729494611</v>
       </c>
       <c r="W17" t="n">
-        <v>1115.76300995349</v>
+        <v>1535.742074224496</v>
       </c>
       <c r="X17" t="n">
-        <v>742.2972516924101</v>
+        <v>1535.742074224496</v>
       </c>
       <c r="Y17" t="n">
-        <v>352.1579197165984</v>
+        <v>1145.602742248685</v>
       </c>
     </row>
     <row r="18">
@@ -5570,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>829.8963863010129</v>
+        <v>671.3473286369498</v>
       </c>
       <c r="C18" t="n">
-        <v>655.4433570198859</v>
+        <v>496.8942993558228</v>
       </c>
       <c r="D18" t="n">
-        <v>506.5089473586346</v>
+        <v>347.9598896945715</v>
       </c>
       <c r="E18" t="n">
-        <v>506.5089473586346</v>
+        <v>188.7224346891161</v>
       </c>
       <c r="F18" t="n">
-        <v>359.9743893855196</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="G18" t="n">
-        <v>221.7894571263213</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="H18" t="n">
-        <v>113.6925001932248</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="I18" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="J18" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="K18" t="n">
-        <v>162.8271385329676</v>
+        <v>253.941029982967</v>
       </c>
       <c r="L18" t="n">
-        <v>508.959781349409</v>
+        <v>600.0736727994083</v>
       </c>
       <c r="M18" t="n">
-        <v>964.8594711344645</v>
+        <v>1055.973362584464</v>
       </c>
       <c r="N18" t="n">
-        <v>1448.532482523722</v>
+        <v>1539.646373973721</v>
       </c>
       <c r="O18" t="n">
-        <v>1824.583116501092</v>
+        <v>1915.697007951092</v>
       </c>
       <c r="P18" t="n">
         <v>2109.393835800051</v>
@@ -5618,28 +5618,28 @@
         <v>2109.393835800051</v>
       </c>
       <c r="R18" t="n">
-        <v>2109.393835800051</v>
+        <v>2042.117567525231</v>
       </c>
       <c r="S18" t="n">
-        <v>1946.116217237204</v>
+        <v>1878.839948962384</v>
       </c>
       <c r="T18" t="n">
-        <v>1746.129955106379</v>
+        <v>1678.853686831559</v>
       </c>
       <c r="U18" t="n">
-        <v>1746.129955106379</v>
+        <v>1450.665982591513</v>
       </c>
       <c r="V18" t="n">
-        <v>1510.977846874636</v>
+        <v>1215.51387435977</v>
       </c>
       <c r="W18" t="n">
-        <v>1413.723522291568</v>
+        <v>961.2765176315684</v>
       </c>
       <c r="X18" t="n">
-        <v>1205.872022086035</v>
+        <v>879.1076274019038</v>
       </c>
       <c r="Y18" t="n">
-        <v>998.1117233210809</v>
+        <v>671.3473286369498</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.4455196246654</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="C19" t="n">
-        <v>185.4455196246654</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="D19" t="n">
-        <v>185.4455196246654</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="E19" t="n">
-        <v>185.4455196246654</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="F19" t="n">
-        <v>185.4455196246654</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="G19" t="n">
-        <v>185.4455196246654</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="H19" t="n">
-        <v>185.4455196246654</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="I19" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="J19" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="K19" t="n">
-        <v>72.25456008701801</v>
+        <v>72.25456008701798</v>
       </c>
       <c r="L19" t="n">
-        <v>166.2559978081031</v>
+        <v>166.255997808103</v>
       </c>
       <c r="M19" t="n">
-        <v>275.7564570053806</v>
+        <v>275.7564570053805</v>
       </c>
       <c r="N19" t="n">
-        <v>388.0878564503603</v>
+        <v>388.0878564503602</v>
       </c>
       <c r="O19" t="n">
-        <v>475.8277896871618</v>
+        <v>475.8277896871617</v>
       </c>
       <c r="P19" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="Q19" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="R19" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="S19" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="T19" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="U19" t="n">
-        <v>527.3837778842139</v>
+        <v>331.6050467529616</v>
       </c>
       <c r="V19" t="n">
-        <v>413.4350705226827</v>
+        <v>331.6050467529616</v>
       </c>
       <c r="W19" t="n">
-        <v>413.4350705226827</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="X19" t="n">
-        <v>185.4455196246654</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="Y19" t="n">
-        <v>185.4455196246654</v>
+        <v>42.18787671600102</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>996.5595822047358</v>
+        <v>796.938646254657</v>
       </c>
       <c r="C20" t="n">
-        <v>996.5595822047358</v>
+        <v>427.9761293142453</v>
       </c>
       <c r="D20" t="n">
-        <v>996.5595822047358</v>
+        <v>427.9761293142453</v>
       </c>
       <c r="E20" t="n">
-        <v>871.6512250791529</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="F20" t="n">
-        <v>460.6653202895453</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="G20" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="H20" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="I20" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="J20" t="n">
-        <v>115.2290882856225</v>
+        <v>115.2290882856227</v>
       </c>
       <c r="K20" t="n">
-        <v>345.4437346953285</v>
+        <v>345.4437346953284</v>
       </c>
       <c r="L20" t="n">
-        <v>683.321988080341</v>
+        <v>683.3219880803409</v>
       </c>
       <c r="M20" t="n">
         <v>1075.883192613821</v>
@@ -5767,37 +5767,37 @@
         <v>1460.164450300943</v>
       </c>
       <c r="O20" t="n">
-        <v>1777.842707170708</v>
+        <v>1777.842707170707</v>
       </c>
       <c r="P20" t="n">
-        <v>2011.299366755287</v>
+        <v>2011.299366755286</v>
       </c>
       <c r="Q20" t="n">
         <v>2109.393835800051</v>
       </c>
       <c r="R20" t="n">
-        <v>2109.393835800051</v>
+        <v>2022.100492129411</v>
       </c>
       <c r="S20" t="n">
-        <v>2109.393835800051</v>
+        <v>1834.218536131508</v>
       </c>
       <c r="T20" t="n">
-        <v>2109.393835800051</v>
+        <v>1613.335429826067</v>
       </c>
       <c r="U20" t="n">
-        <v>2109.393835800051</v>
+        <v>1359.53255362642</v>
       </c>
       <c r="V20" t="n">
-        <v>2109.393835800051</v>
+        <v>1170.404404515737</v>
       </c>
       <c r="W20" t="n">
-        <v>1756.625180529937</v>
+        <v>1170.404404515737</v>
       </c>
       <c r="X20" t="n">
-        <v>1383.159422268857</v>
+        <v>796.938646254657</v>
       </c>
       <c r="Y20" t="n">
-        <v>1383.159422268857</v>
+        <v>796.938646254657</v>
       </c>
     </row>
     <row r="21">
@@ -5807,40 +5807,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>989.1338413064683</v>
+        <v>748.5785004093934</v>
       </c>
       <c r="C21" t="n">
-        <v>814.6808120253413</v>
+        <v>574.1254711282664</v>
       </c>
       <c r="D21" t="n">
-        <v>665.74640236409</v>
+        <v>425.1910614670152</v>
       </c>
       <c r="E21" t="n">
-        <v>506.5089473586346</v>
+        <v>326.9073669483143</v>
       </c>
       <c r="F21" t="n">
-        <v>359.9743893855196</v>
+        <v>180.3728089751993</v>
       </c>
       <c r="G21" t="n">
-        <v>221.7894571263213</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="H21" t="n">
-        <v>113.6925001932248</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="I21" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="J21" t="n">
-        <v>91.99734226147166</v>
+        <v>91.99734226147163</v>
       </c>
       <c r="K21" t="n">
-        <v>91.99734226147166</v>
+        <v>303.7504955284376</v>
       </c>
       <c r="L21" t="n">
-        <v>371.269127424762</v>
+        <v>649.8831383448789</v>
       </c>
       <c r="M21" t="n">
-        <v>827.1688172098175</v>
+        <v>1105.782828129934</v>
       </c>
       <c r="N21" t="n">
         <v>1310.841828599075</v>
@@ -5855,28 +5855,28 @@
         <v>2109.393835800051</v>
       </c>
       <c r="R21" t="n">
-        <v>2109.393835800051</v>
+        <v>2042.117567525231</v>
       </c>
       <c r="S21" t="n">
-        <v>2109.393835800051</v>
+        <v>2042.117567525231</v>
       </c>
       <c r="T21" t="n">
-        <v>2109.393835800051</v>
+        <v>1842.131305394406</v>
       </c>
       <c r="U21" t="n">
-        <v>2062.350442256967</v>
+        <v>1613.94360115436</v>
       </c>
       <c r="V21" t="n">
-        <v>1827.198334025225</v>
+        <v>1378.791492922617</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.960977297023</v>
+        <v>1124.554136194415</v>
       </c>
       <c r="X21" t="n">
-        <v>1365.10947709149</v>
+        <v>1124.554136194415</v>
       </c>
       <c r="Y21" t="n">
-        <v>1157.349178326536</v>
+        <v>916.7938374294615</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>42.18787671600103</v>
+        <v>500.0144405318732</v>
       </c>
       <c r="C22" t="n">
-        <v>42.18787671600103</v>
+        <v>500.0144405318732</v>
       </c>
       <c r="D22" t="n">
-        <v>42.18787671600103</v>
+        <v>349.8978011195375</v>
       </c>
       <c r="E22" t="n">
-        <v>42.18787671600103</v>
+        <v>201.9847075371443</v>
       </c>
       <c r="F22" t="n">
-        <v>42.18787671600103</v>
+        <v>201.9847075371443</v>
       </c>
       <c r="G22" t="n">
-        <v>42.18787671600103</v>
+        <v>201.9847075371443</v>
       </c>
       <c r="H22" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="I22" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="J22" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="K22" t="n">
-        <v>72.25456008701801</v>
+        <v>72.25456008701799</v>
       </c>
       <c r="L22" t="n">
-        <v>166.2559978081031</v>
+        <v>166.255997808103</v>
       </c>
       <c r="M22" t="n">
-        <v>275.7564570053806</v>
+        <v>275.7564570053805</v>
       </c>
       <c r="N22" t="n">
-        <v>388.0878564503603</v>
+        <v>388.0878564503602</v>
       </c>
       <c r="O22" t="n">
-        <v>475.8277896871618</v>
+        <v>475.8277896871617</v>
       </c>
       <c r="P22" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="Q22" t="n">
-        <v>527.3837778842139</v>
+        <v>500.0144405318732</v>
       </c>
       <c r="R22" t="n">
-        <v>527.3837778842139</v>
+        <v>500.0144405318732</v>
       </c>
       <c r="S22" t="n">
-        <v>527.3837778842139</v>
+        <v>500.0144405318732</v>
       </c>
       <c r="T22" t="n">
-        <v>527.3837778842139</v>
+        <v>500.0144405318732</v>
       </c>
       <c r="U22" t="n">
-        <v>527.3837778842139</v>
+        <v>500.0144405318732</v>
       </c>
       <c r="V22" t="n">
-        <v>272.6992896783271</v>
+        <v>500.0144405318732</v>
       </c>
       <c r="W22" t="n">
-        <v>42.18787671600103</v>
+        <v>500.0144405318732</v>
       </c>
       <c r="X22" t="n">
-        <v>42.18787671600103</v>
+        <v>500.0144405318732</v>
       </c>
       <c r="Y22" t="n">
-        <v>42.18787671600103</v>
+        <v>500.0144405318732</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1219.679656148628</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C23" t="n">
-        <v>850.7171392082162</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D23" t="n">
-        <v>850.7171392082162</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E23" t="n">
-        <v>464.928886609972</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036445</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018222</v>
+        <v>2535.974978926224</v>
       </c>
       <c r="W23" t="n">
-        <v>2369.884586449641</v>
+        <v>2535.974978926224</v>
       </c>
       <c r="X23" t="n">
-        <v>1996.418828188561</v>
+        <v>2535.974978926224</v>
       </c>
       <c r="Y23" t="n">
-        <v>1606.27949621275</v>
+        <v>2535.974978926224</v>
       </c>
     </row>
     <row r="24">
@@ -6059,34 +6059,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>290.5651556036576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C25" t="n">
-        <v>121.6289726757507</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D25" t="n">
-        <v>121.6289726757507</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>121.6289726757507</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>121.6289726757507</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>121.6289726757507</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>121.6289726757507</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
         <v>53.94298182036445</v>
@@ -6171,28 +6171,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>579.9823256406182</v>
+        <v>563.9091713093267</v>
       </c>
       <c r="T25" t="n">
-        <v>579.9823256406182</v>
+        <v>563.9091713093267</v>
       </c>
       <c r="U25" t="n">
-        <v>579.9823256406182</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="V25" t="n">
-        <v>579.9823256406182</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W25" t="n">
-        <v>290.5651556036576</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X25" t="n">
-        <v>290.5651556036576</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y25" t="n">
-        <v>290.5651556036576</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1177.911859172213</v>
+        <v>1135.888471323017</v>
       </c>
       <c r="C26" t="n">
-        <v>1177.911859172213</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="D26" t="n">
-        <v>1177.911859172213</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E26" t="n">
-        <v>792.1236065739691</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F26" t="n">
         <v>381.1377017843616</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V26" t="n">
-        <v>2680.885444743341</v>
+        <v>1899.493561559909</v>
       </c>
       <c r="W26" t="n">
-        <v>2328.116789473227</v>
+        <v>1899.493561559909</v>
       </c>
       <c r="X26" t="n">
-        <v>1954.651031212147</v>
+        <v>1526.027803298829</v>
       </c>
       <c r="Y26" t="n">
-        <v>1564.511699236335</v>
+        <v>1135.888471323017</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170821</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359551</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692481</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G27" t="n">
         <v>221.4284102423999</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I27" t="n">
         <v>53.94298182036444</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
         <v>1194.968834417901</v>
@@ -6332,16 +6332,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207637</v>
@@ -6350,7 +6350,7 @@
         <v>1364.473611002104</v>
       </c>
       <c r="Y27" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="28">
@@ -6408,19 +6408,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>290.8087152951862</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V28" t="n">
-        <v>290.8087152951862</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W28" t="n">
         <v>53.94298182036444</v>
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1759.555763042629</v>
+        <v>1328.309493689272</v>
       </c>
       <c r="C29" t="n">
-        <v>1390.593246102217</v>
+        <v>959.3469767488602</v>
       </c>
       <c r="D29" t="n">
-        <v>1390.593246102217</v>
+        <v>959.3469767488602</v>
       </c>
       <c r="E29" t="n">
-        <v>1004.804993503973</v>
+        <v>959.3469767488602</v>
       </c>
       <c r="F29" t="n">
-        <v>625.3727659270879</v>
+        <v>548.3610719592527</v>
       </c>
       <c r="G29" t="n">
-        <v>207.4089578252748</v>
+        <v>130.3972638574396</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6493,22 +6493,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U29" t="n">
-        <v>2443.387305656314</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V29" t="n">
-        <v>2112.324418312743</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W29" t="n">
-        <v>1759.555763042629</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="X29" t="n">
-        <v>1759.555763042629</v>
+        <v>2105.048665729205</v>
       </c>
       <c r="Y29" t="n">
-        <v>1759.555763042629</v>
+        <v>1714.909333753394</v>
       </c>
     </row>
     <row r="30">
@@ -6545,13 +6545,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
         <v>1748.695370517453</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C31" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
         <v>53.94298182036445</v>
@@ -6651,22 +6651,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W31" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X31" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y31" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>982.8165910026951</v>
+        <v>1659.880644283887</v>
       </c>
       <c r="C32" t="n">
-        <v>982.8165910026951</v>
+        <v>1290.918127343475</v>
       </c>
       <c r="D32" t="n">
-        <v>882.8926947117851</v>
+        <v>932.6524287367247</v>
       </c>
       <c r="E32" t="n">
-        <v>882.8926947117851</v>
+        <v>546.8641761384804</v>
       </c>
       <c r="F32" t="n">
-        <v>471.9067899221776</v>
+        <v>135.8782713488728</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036444</v>
+        <v>135.8782713488728</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
         <v>169.7108380533141</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U32" t="n">
-        <v>2443.387305656313</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V32" t="n">
-        <v>2112.324418312743</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W32" t="n">
-        <v>1759.555763042629</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X32" t="n">
-        <v>1759.555763042629</v>
+        <v>2050.019976259699</v>
       </c>
       <c r="Y32" t="n">
-        <v>1369.416431066817</v>
+        <v>1659.880644283887</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692488</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>266.2060027641985</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6818,10 +6818,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>222.942782082032</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="C34" t="n">
-        <v>222.942782082032</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="D34" t="n">
-        <v>222.942782082032</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="E34" t="n">
-        <v>222.942782082032</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="F34" t="n">
-        <v>222.942782082032</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
@@ -6885,25 +6885,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>704.9354576193172</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>477.6272702879189</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U34" t="n">
-        <v>477.6272702879189</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V34" t="n">
-        <v>222.942782082032</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W34" t="n">
-        <v>222.942782082032</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="X34" t="n">
-        <v>222.942782082032</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.942782082032</v>
+        <v>211.4036268380754</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>159.5099885583422</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="C35" t="n">
-        <v>53.94298182036445</v>
+        <v>1525.577074624423</v>
       </c>
       <c r="D35" t="n">
-        <v>53.94298182036445</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E35" t="n">
-        <v>53.94298182036445</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F35" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
         <v>53.94298182036445</v>
@@ -6937,19 +6937,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6970,19 +6970,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U35" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V35" t="n">
-        <v>1662.48357412947</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W35" t="n">
-        <v>1309.714918859356</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X35" t="n">
-        <v>936.2491605982757</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="Y35" t="n">
-        <v>546.109828622464</v>
+        <v>1894.539591564834</v>
       </c>
     </row>
     <row r="36">
@@ -7016,22 +7016,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
         <v>2525.076107152626</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C37" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D37" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
         <v>53.94298182036445</v>
@@ -7128,19 +7128,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W37" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X37" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y37" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>843.3415311720269</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="C38" t="n">
-        <v>474.3790142316151</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="D38" t="n">
-        <v>116.1133156248646</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="E38" t="n">
-        <v>116.1133156248646</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F38" t="n">
-        <v>116.1133156248646</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U38" t="n">
-        <v>1993.54646147304</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V38" t="n">
-        <v>1993.54646147304</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="W38" t="n">
-        <v>1993.54646147304</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="X38" t="n">
-        <v>1620.08070321196</v>
+        <v>1659.631866751719</v>
       </c>
       <c r="Y38" t="n">
-        <v>1229.941371236149</v>
+        <v>1269.492534775907</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7292,10 +7292,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>372.9958041606071</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C40" t="n">
-        <v>204.0596212327002</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7365,19 +7365,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W40" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X40" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y40" t="n">
-        <v>554.6442689908469</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2366.086203674652</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C41" t="n">
-        <v>2107.607341885688</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D41" t="n">
-        <v>1749.341643278937</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E41" t="n">
-        <v>1363.553390680693</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F41" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G41" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533135</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073312</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M41" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N41" t="n">
         <v>1836.345445977174</v>
@@ -7447,16 +7447,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V41" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W41" t="n">
-        <v>2366.086203674652</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X41" t="n">
-        <v>2366.086203674652</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y41" t="n">
-        <v>2366.086203674652</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="42">
@@ -7466,67 +7466,67 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>391.878965009939</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C43" t="n">
-        <v>222.942782082032</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D43" t="n">
-        <v>222.942782082032</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E43" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F43" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7599,22 +7599,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>681.052575355371</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U43" t="n">
-        <v>391.878965009939</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="V43" t="n">
-        <v>391.878965009939</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="W43" t="n">
-        <v>391.878965009939</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="X43" t="n">
-        <v>391.878965009939</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="Y43" t="n">
-        <v>391.878965009939</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1150.78176403888</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="C44" t="n">
-        <v>1150.78176403888</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="D44" t="n">
-        <v>1150.78176403888</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="E44" t="n">
-        <v>1150.78176403888</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F44" t="n">
-        <v>739.7958592492726</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
-        <v>321.8320511474594</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J44" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533135</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733125</v>
+        <v>463.961649073312</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M44" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N44" t="n">
         <v>1836.345445977174</v>
@@ -7681,19 +7681,19 @@
         <v>2478.514423990285</v>
       </c>
       <c r="U44" t="n">
-        <v>2224.752638628377</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V44" t="n">
-        <v>1893.689751284806</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="W44" t="n">
-        <v>1540.921096014692</v>
+        <v>1646.497784948677</v>
       </c>
       <c r="X44" t="n">
-        <v>1540.921096014692</v>
+        <v>1273.032026687597</v>
       </c>
       <c r="Y44" t="n">
-        <v>1150.78176403888</v>
+        <v>882.8926947117851</v>
       </c>
     </row>
     <row r="45">
@@ -7703,73 +7703,73 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y45" t="n">
         <v>1156.713312237151</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2636.88256938646</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C46" t="n">
-        <v>2636.88256938646</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D46" t="n">
-        <v>2486.765929974124</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E46" t="n">
-        <v>2338.852836391731</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F46" t="n">
-        <v>2191.96288889382</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K46" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>2636.88256938646</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V46" t="n">
-        <v>2636.88256938646</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W46" t="n">
-        <v>2636.88256938646</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X46" t="n">
-        <v>2636.88256938646</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y46" t="n">
-        <v>2636.88256938646</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8060,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
@@ -8072,10 +8072,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>238.6269471880057</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>303.774711870172</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>75.77844388033751</v>
+        <v>75.77844388033752</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>172.4310032247001</v>
       </c>
       <c r="L12" t="n">
-        <v>278.806111515581</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.99581912509468</v>
+        <v>70.99581912509471</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>75.77844388033751</v>
+        <v>75.77844388033752</v>
       </c>
       <c r="K15" t="n">
-        <v>50.57316300554223</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9023,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>226.4285348520587</v>
       </c>
       <c r="Q15" t="n">
-        <v>192.8536593442529</v>
+        <v>70.99581912509471</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>75.77844388033751</v>
+        <v>75.77844388033752</v>
       </c>
       <c r="K18" t="n">
-        <v>172.4310032247004</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9260,10 +9260,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>226.4285348520587</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.99581912509468</v>
+        <v>70.99581912509471</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,16 +9482,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>50.57316300554223</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>303.3041254517915</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>197.9140804848494</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,16 +9953,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>327.4218609627881</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516219</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10193,7 +10193,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10427,16 +10427,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>221.0467526719075</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,13 +10676,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451752</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720731</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,19 +11138,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028821</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720731</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451752</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -22549,19 +22549,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>224.9573404408503</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22570,7 +22570,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22606,10 +22606,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22625,31 +22625,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>84.58157038459437</v>
       </c>
       <c r="E3" t="n">
-        <v>79.3241055769174</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22682,19 +22682,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22746,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>330.3082731757329</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22795,10 +22795,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22807,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22834,10 +22834,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>150.6253511395826</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22862,13 +22862,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22886,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,19 +22910,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>134.925032609203</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -22931,7 +22931,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>201.511342836838</v>
       </c>
     </row>
     <row r="7">
@@ -22989,10 +22989,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23029,10 +23029,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
@@ -23065,31 +23065,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>20.80116313523413</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>230.1618975371121</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>161.9526345551508</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,10 +23147,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -23162,13 +23162,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>171.0220216300238</v>
       </c>
     </row>
     <row r="10">
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>16.49751982947248</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>414.2926691378088</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>329.1304393464753</v>
+        <v>290.0777972050404</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23305,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>86.4204102339333</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>186.0031364379248</v>
       </c>
       <c r="T11" t="n">
-        <v>218.674275242386</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.2648474376504</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23348,13 +23348,13 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.8030829366063</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>107.0159873637655</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23384,19 +23384,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>66.60350559207139</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>146.8612007217288</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9058271976456</v>
+        <v>150.075826782973</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -23433,13 +23433,13 @@
         <v>167.537897457236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>158.1988625129318</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>141.8250664795777</v>
       </c>
       <c r="J13" t="n">
-        <v>61.32628970022416</v>
+        <v>61.32628970022417</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.22261241385097</v>
+        <v>48.22261241385099</v>
       </c>
       <c r="R13" t="n">
         <v>156.9211815276446</v>
@@ -23469,22 +23469,22 @@
         <v>216.1206161765721</v>
       </c>
       <c r="T13" t="n">
-        <v>226.0096940321479</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2943157982424</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>223.5130505884825</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.26464018807357</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23497,13 +23497,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>221.6403814799044</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23512,7 +23512,7 @@
         <v>414.2926691378088</v>
       </c>
       <c r="H14" t="n">
-        <v>329.1304393464753</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>171.5352284535379</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>86.4204102339333</v>
+        <v>86.42041023393332</v>
       </c>
       <c r="S14" t="n">
-        <v>186.0031364379248</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.674275242386</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>170.4681325479744</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23576,7 +23576,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>125.0477576137983</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23585,7 +23585,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>68.62034588025762</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -23594,7 +23594,7 @@
         <v>107.0159873637655</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>70.78957724245151</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>66.60350559207137</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.35033214224674</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23676,7 +23676,7 @@
         <v>141.8250664795777</v>
       </c>
       <c r="J16" t="n">
-        <v>61.32628970022416</v>
+        <v>61.32628970022417</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.22261241385097</v>
+        <v>48.22261241385099</v>
       </c>
       <c r="R16" t="n">
         <v>156.9211815276446</v>
@@ -23712,10 +23712,10 @@
         <v>286.2943157982424</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>58.31669950388843</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>247.3987275464271</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23740,10 +23740,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>79.15954060009688</v>
       </c>
       <c r="G17" t="n">
         <v>414.2926691378088</v>
@@ -23752,7 +23752,7 @@
         <v>329.1304393464753</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>171.5352284535379</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>86.4204102339333</v>
+        <v>86.42041023393332</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>186.0031364379248</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2648474376504</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -23819,19 +23819,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.8030829366063</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>107.0159873637655</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>70.78957724245151</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>66.60350559207137</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23867,16 +23867,16 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9058271976456</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>155.4132018236819</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>124.4257838761095</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23910,10 +23910,10 @@
         <v>158.1988625129318</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>141.8250664795777</v>
       </c>
       <c r="J19" t="n">
-        <v>61.32628970022416</v>
+        <v>61.32628970022417</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.22261241385097</v>
+        <v>48.22261241385099</v>
       </c>
       <c r="R19" t="n">
         <v>156.9211815276446</v>
@@ -23946,16 +23946,16 @@
         <v>226.0096940321479</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2943157982424</v>
+        <v>92.47337197830285</v>
       </c>
       <c r="V19" t="n">
-        <v>139.3284230359121</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>258.2710965179348</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>414.2926691378088</v>
       </c>
       <c r="H20" t="n">
         <v>329.1304393464753</v>
@@ -24016,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>86.4204102339333</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>186.0031364379248</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>218.674275242386</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2648474376504</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>140.5153908505582</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24056,7 +24056,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>60.34422288188713</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -24065,10 +24065,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>107.0159873637655</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>70.78957724245151</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>66.60350559207137</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>161.6448423772186</v>
       </c>
       <c r="T21" t="n">
-        <v>197.9863995095175</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>179.3328675899922</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24113,7 +24113,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24132,10 +24132,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,13 +24144,13 @@
         <v>167.537897457236</v>
       </c>
       <c r="H22" t="n">
-        <v>158.1988625129318</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>141.8250664795777</v>
       </c>
       <c r="J22" t="n">
-        <v>61.32628970022416</v>
+        <v>61.32628970022417</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.22261241385097</v>
+        <v>21.12696843503389</v>
       </c>
       <c r="R22" t="n">
         <v>156.9211815276446</v>
@@ -24186,10 +24186,10 @@
         <v>286.2943157982424</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>58.3166995038882</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24211,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24265,16 +24265,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>222.6682900738684</v>
       </c>
       <c r="W23" t="n">
-        <v>25.24910919451753</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24384,7 +24384,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>67.95649084550584</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
         <v>45.199959188537</v>
@@ -24411,28 +24411,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>49.56792418188243</v>
       </c>
       <c r="T25" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24454,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>413.784170020795</v>
@@ -24490,22 +24490,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>311.6512486580027</v>
+        <v>18.19156719847797</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24660,10 +24660,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W28" t="n">
-        <v>52.02592219651748</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,19 +24688,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>31.2381404405952</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>248.2330335476527</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,22 +24733,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>117.2681133594817</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
         <v>45.199959188537</v>
@@ -24891,19 +24891,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>35.43826180874041</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>255.7583842926821</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>242.8068361311339</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24964,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>11.42376369151714</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25125,7 +25125,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>189.183947628773</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,10 +25134,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>260.7615551004096</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>100.3558755794337</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25210,19 +25210,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25332,10 +25332,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>24.95409234429435</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25368,16 +25368,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25393,19 +25393,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>352.2355395543398</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25438,10 +25438,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25450,13 +25450,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>138.0137949907132</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,16 +25563,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>72.67053247541058</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
@@ -25605,19 +25605,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.83478528866331</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>109.3788185999332</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25687,16 +25687,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>379.9321508152011</v>
       </c>
     </row>
     <row r="42">
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25788,28 +25788,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
@@ -25839,10 +25839,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>178.4294606955317</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>135.7278480073534</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>210.6439103753944</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25927,10 +25927,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>104.5209220446457</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26028,25 +26028,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
@@ -26079,13 +26079,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>226.6180178265326</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>473915.1863847286</v>
+        <v>473915.1863847285</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>684080.3090986867</v>
+        <v>684080.3090986863</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>684080.3090986864</v>
+        <v>684080.3090986862</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>684080.3090986867</v>
+        <v>684080.3090986863</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>790486.6127519928</v>
+        <v>790486.6127519927</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>790486.6127519929</v>
+        <v>790486.6127519927</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>790486.6127519928</v>
+        <v>790486.6127519927</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>790486.6127519927</v>
+        <v>790486.6127519929</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>790486.6127519928</v>
+        <v>790486.6127519927</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>157852.6389047657</v>
+        <v>157852.6389047658</v>
       </c>
       <c r="C2" t="n">
         <v>157852.6389047657</v>
@@ -26322,13 +26322,13 @@
         <v>157852.6389047657</v>
       </c>
       <c r="E2" t="n">
+        <v>235437.2422819576</v>
+      </c>
+      <c r="F2" t="n">
         <v>235437.2422819575</v>
       </c>
-      <c r="F2" t="n">
-        <v>235437.2422819576</v>
-      </c>
       <c r="G2" t="n">
-        <v>235437.2422819576</v>
+        <v>235437.2422819575</v>
       </c>
       <c r="H2" t="n">
         <v>235437.2422819575</v>
@@ -26340,22 +26340,22 @@
         <v>274694.9795149696</v>
       </c>
       <c r="K2" t="n">
-        <v>274694.9795149699</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="L2" t="n">
+        <v>274694.9795149695</v>
+      </c>
+      <c r="M2" t="n">
         <v>274694.9795149697</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>274694.9795149696</v>
-      </c>
-      <c r="N2" t="n">
-        <v>274694.9795149697</v>
       </c>
       <c r="O2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="P2" t="n">
-        <v>274694.9795149699</v>
+        <v>274694.9795149696</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>287351.7100134256</v>
+        <v>287351.7100134255</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>134288.7015116921</v>
+        <v>134288.7015116922</v>
       </c>
       <c r="J3" t="n">
         <v>63059.94259910619</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>71355.62051871089</v>
+        <v>71355.62051871086</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>50385.00392753457</v>
       </c>
       <c r="E4" t="n">
-        <v>52516.94845541666</v>
+        <v>52516.94845541665</v>
       </c>
       <c r="F4" t="n">
-        <v>52516.94845541666</v>
+        <v>52516.94845541665</v>
       </c>
       <c r="G4" t="n">
-        <v>52516.94845541666</v>
+        <v>52516.94845541665</v>
       </c>
       <c r="H4" t="n">
         <v>52516.94845541666</v>
@@ -26456,10 +26456,10 @@
         <v>53660.56571087037</v>
       </c>
       <c r="O4" t="n">
-        <v>53660.56571087038</v>
+        <v>53660.56571087036</v>
       </c>
       <c r="P4" t="n">
-        <v>53660.56571087037</v>
+        <v>53660.56571087036</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>37540.13459730639</v>
+        <v>37540.13459730638</v>
       </c>
       <c r="F5" t="n">
-        <v>37540.13459730639</v>
+        <v>37540.13459730638</v>
       </c>
       <c r="G5" t="n">
-        <v>37540.13459730639</v>
+        <v>37540.13459730638</v>
       </c>
       <c r="H5" t="n">
-        <v>37540.13459730639</v>
+        <v>37540.13459730638</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21583.06531807825</v>
+        <v>-33801.07593811867</v>
       </c>
       <c r="C6" t="n">
-        <v>59186.36621346948</v>
+        <v>46968.35559342902</v>
       </c>
       <c r="D6" t="n">
-        <v>59186.36621346945</v>
+        <v>46968.35559342905</v>
       </c>
       <c r="E6" t="n">
-        <v>-141971.5507841912</v>
+        <v>-150106.1612264845</v>
       </c>
       <c r="F6" t="n">
-        <v>145380.1592292346</v>
+        <v>137245.548786941</v>
       </c>
       <c r="G6" t="n">
-        <v>145380.1592292345</v>
+        <v>137245.548786941</v>
       </c>
       <c r="H6" t="n">
-        <v>145380.1592292345</v>
+        <v>137245.548786941</v>
       </c>
       <c r="I6" t="n">
-        <v>37514.23422899774</v>
+        <v>31445.82048317845</v>
       </c>
       <c r="J6" t="n">
-        <v>108742.9931415835</v>
+        <v>102674.5793957644</v>
       </c>
       <c r="K6" t="n">
-        <v>171802.93574069</v>
+        <v>165734.5219948707</v>
       </c>
       <c r="L6" t="n">
-        <v>171802.9357406899</v>
+        <v>165734.5219948705</v>
       </c>
       <c r="M6" t="n">
-        <v>100447.3152219789</v>
+        <v>94378.90147615978</v>
       </c>
       <c r="N6" t="n">
-        <v>171802.9357406899</v>
+        <v>165734.5219948706</v>
       </c>
       <c r="O6" t="n">
-        <v>171802.9357406899</v>
+        <v>165734.5219948707</v>
       </c>
       <c r="P6" t="n">
-        <v>171802.93574069</v>
+        <v>165734.5219948705</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>251.2545088598902</v>
+        <v>251.2545088598901</v>
       </c>
       <c r="F3" t="n">
-        <v>251.2545088598902</v>
+        <v>251.2545088598901</v>
       </c>
       <c r="G3" t="n">
-        <v>251.2545088598902</v>
+        <v>251.2545088598901</v>
       </c>
       <c r="H3" t="n">
-        <v>251.2545088598902</v>
+        <v>251.2545088598901</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26798,16 +26798,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>527.3484589500129</v>
+        <v>527.3484589500127</v>
       </c>
       <c r="F4" t="n">
-        <v>527.3484589500129</v>
+        <v>527.3484589500127</v>
       </c>
       <c r="G4" t="n">
-        <v>527.3484589500129</v>
+        <v>527.3484589500127</v>
       </c>
       <c r="H4" t="n">
-        <v>527.3484589500129</v>
+        <v>527.3484589500127</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545556</v>
@@ -26819,19 +26819,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>251.2545088598902</v>
+        <v>251.2545088598901</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>126.4891553571965</v>
+        <v>126.4891553571966</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>286.3341700723538</v>
+        <v>286.3341700723537</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>146.9388138045427</v>
+        <v>146.9388138045429</v>
       </c>
       <c r="J4" t="n">
         <v>241.0142888776589</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>286.3341700723539</v>
+        <v>286.3341700723538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>286.3341700723538</v>
+        <v>286.3341700723537</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.010068377326191</v>
+        <v>1.01006837732619</v>
       </c>
       <c r="H11" t="n">
-        <v>10.34436276929186</v>
+        <v>10.34436276929185</v>
       </c>
       <c r="I11" t="n">
-        <v>38.94066111686801</v>
+        <v>38.94066111686799</v>
       </c>
       <c r="J11" t="n">
-        <v>85.72829094008887</v>
+        <v>85.72829094008883</v>
       </c>
       <c r="K11" t="n">
-        <v>128.4844853523066</v>
+        <v>128.4844853523065</v>
       </c>
       <c r="L11" t="n">
-        <v>159.396365454903</v>
+        <v>159.3963654549029</v>
       </c>
       <c r="M11" t="n">
         <v>177.3591689601776</v>
       </c>
       <c r="N11" t="n">
-        <v>180.2290257372557</v>
+        <v>180.2290257372556</v>
       </c>
       <c r="O11" t="n">
-        <v>170.1851583102184</v>
+        <v>170.1851583102183</v>
       </c>
       <c r="P11" t="n">
         <v>145.249095244978</v>
       </c>
       <c r="Q11" t="n">
-        <v>109.0760214819838</v>
+        <v>109.0760214819837</v>
       </c>
       <c r="R11" t="n">
-        <v>63.44870770721639</v>
+        <v>63.44870770721636</v>
       </c>
       <c r="S11" t="n">
-        <v>23.0169331483206</v>
+        <v>23.01693314832059</v>
       </c>
       <c r="T11" t="n">
-        <v>4.421574321745402</v>
+        <v>4.421574321745401</v>
       </c>
       <c r="U11" t="n">
-        <v>0.08080547018609525</v>
+        <v>0.08080547018609521</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5404342266042921</v>
+        <v>0.5404342266042919</v>
       </c>
       <c r="H12" t="n">
-        <v>5.219456872730927</v>
+        <v>5.219456872730924</v>
       </c>
       <c r="I12" t="n">
-        <v>18.60705560896357</v>
+        <v>18.60705560896356</v>
       </c>
       <c r="J12" t="n">
-        <v>51.0591827863292</v>
+        <v>51.05918278632917</v>
       </c>
       <c r="K12" t="n">
-        <v>87.26827596881677</v>
+        <v>87.26827596881672</v>
       </c>
       <c r="L12" t="n">
-        <v>117.3429666142346</v>
+        <v>117.3429666142345</v>
       </c>
       <c r="M12" t="n">
         <v>136.9337073286401</v>
       </c>
       <c r="N12" t="n">
-        <v>140.5579351026663</v>
+        <v>140.5579351026662</v>
       </c>
       <c r="O12" t="n">
         <v>128.5830503973817</v>
       </c>
       <c r="P12" t="n">
-        <v>103.199234025867</v>
+        <v>103.1992340258669</v>
       </c>
       <c r="Q12" t="n">
-        <v>68.98595496092683</v>
+        <v>68.9859549609268</v>
       </c>
       <c r="R12" t="n">
-        <v>33.55432856057176</v>
+        <v>33.55432856057175</v>
       </c>
       <c r="S12" t="n">
         <v>10.03832872661919</v>
       </c>
       <c r="T12" t="n">
-        <v>2.178329185304142</v>
+        <v>2.17832918530414</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03555488332922976</v>
+        <v>0.03555488332922974</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4530819012227527</v>
+        <v>0.4530819012227525</v>
       </c>
       <c r="H13" t="n">
-        <v>4.02830999450775</v>
+        <v>4.028309994507748</v>
       </c>
       <c r="I13" t="n">
         <v>13.6254084476806</v>
       </c>
       <c r="J13" t="n">
-        <v>32.03289041644862</v>
+        <v>32.0328904164486</v>
       </c>
       <c r="K13" t="n">
-        <v>52.63987906933435</v>
+        <v>52.63987906933433</v>
       </c>
       <c r="L13" t="n">
-        <v>67.36092193269909</v>
+        <v>67.36092193269906</v>
       </c>
       <c r="M13" t="n">
-        <v>71.02264747985386</v>
+        <v>71.02264747985382</v>
       </c>
       <c r="N13" t="n">
-        <v>69.33388766620547</v>
+        <v>69.33388766620544</v>
       </c>
       <c r="O13" t="n">
-        <v>64.04106727464874</v>
+        <v>64.04106727464871</v>
       </c>
       <c r="P13" t="n">
-        <v>54.79819648970454</v>
+        <v>54.79819648970452</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.93943083784341</v>
+        <v>37.9394308378434</v>
       </c>
       <c r="R13" t="n">
-        <v>20.37220984952486</v>
+        <v>20.37220984952485</v>
       </c>
       <c r="S13" t="n">
-        <v>7.895981860400151</v>
+        <v>7.895981860400147</v>
       </c>
       <c r="T13" t="n">
-        <v>1.935895396133579</v>
+        <v>1.935895396133578</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02471355824851381</v>
+        <v>0.0247135582485138</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.010068377326191</v>
+        <v>1.01006837732619</v>
       </c>
       <c r="H14" t="n">
-        <v>10.34436276929186</v>
+        <v>10.34436276929185</v>
       </c>
       <c r="I14" t="n">
-        <v>38.94066111686801</v>
+        <v>38.94066111686799</v>
       </c>
       <c r="J14" t="n">
-        <v>85.72829094008887</v>
+        <v>85.72829094008883</v>
       </c>
       <c r="K14" t="n">
-        <v>128.4844853523066</v>
+        <v>128.4844853523065</v>
       </c>
       <c r="L14" t="n">
-        <v>159.396365454903</v>
+        <v>159.3963654549029</v>
       </c>
       <c r="M14" t="n">
         <v>177.3591689601776</v>
       </c>
       <c r="N14" t="n">
-        <v>180.2290257372557</v>
+        <v>180.2290257372556</v>
       </c>
       <c r="O14" t="n">
-        <v>170.1851583102184</v>
+        <v>170.1851583102183</v>
       </c>
       <c r="P14" t="n">
         <v>145.249095244978</v>
       </c>
       <c r="Q14" t="n">
-        <v>109.0760214819838</v>
+        <v>109.0760214819837</v>
       </c>
       <c r="R14" t="n">
-        <v>63.44870770721639</v>
+        <v>63.44870770721636</v>
       </c>
       <c r="S14" t="n">
-        <v>23.0169331483206</v>
+        <v>23.01693314832059</v>
       </c>
       <c r="T14" t="n">
-        <v>4.421574321745402</v>
+        <v>4.421574321745401</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08080547018609525</v>
+        <v>0.08080547018609521</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5404342266042921</v>
+        <v>0.5404342266042919</v>
       </c>
       <c r="H15" t="n">
-        <v>5.219456872730927</v>
+        <v>5.219456872730924</v>
       </c>
       <c r="I15" t="n">
-        <v>18.60705560896357</v>
+        <v>18.60705560896356</v>
       </c>
       <c r="J15" t="n">
-        <v>51.0591827863292</v>
+        <v>51.05918278632917</v>
       </c>
       <c r="K15" t="n">
-        <v>87.26827596881677</v>
+        <v>87.26827596881672</v>
       </c>
       <c r="L15" t="n">
-        <v>117.3429666142346</v>
+        <v>117.3429666142345</v>
       </c>
       <c r="M15" t="n">
         <v>136.9337073286401</v>
       </c>
       <c r="N15" t="n">
-        <v>140.5579351026663</v>
+        <v>140.5579351026662</v>
       </c>
       <c r="O15" t="n">
         <v>128.5830503973817</v>
       </c>
       <c r="P15" t="n">
-        <v>103.199234025867</v>
+        <v>103.1992340258669</v>
       </c>
       <c r="Q15" t="n">
-        <v>68.98595496092683</v>
+        <v>68.9859549609268</v>
       </c>
       <c r="R15" t="n">
-        <v>33.55432856057176</v>
+        <v>33.55432856057175</v>
       </c>
       <c r="S15" t="n">
         <v>10.03832872661919</v>
       </c>
       <c r="T15" t="n">
-        <v>2.178329185304142</v>
+        <v>2.17832918530414</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03555488332922976</v>
+        <v>0.03555488332922974</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4530819012227527</v>
+        <v>0.4530819012227525</v>
       </c>
       <c r="H16" t="n">
-        <v>4.02830999450775</v>
+        <v>4.028309994507748</v>
       </c>
       <c r="I16" t="n">
         <v>13.6254084476806</v>
       </c>
       <c r="J16" t="n">
-        <v>32.03289041644862</v>
+        <v>32.0328904164486</v>
       </c>
       <c r="K16" t="n">
-        <v>52.63987906933435</v>
+        <v>52.63987906933433</v>
       </c>
       <c r="L16" t="n">
-        <v>67.36092193269909</v>
+        <v>67.36092193269906</v>
       </c>
       <c r="M16" t="n">
-        <v>71.02264747985386</v>
+        <v>71.02264747985382</v>
       </c>
       <c r="N16" t="n">
-        <v>69.33388766620547</v>
+        <v>69.33388766620544</v>
       </c>
       <c r="O16" t="n">
-        <v>64.04106727464874</v>
+        <v>64.04106727464871</v>
       </c>
       <c r="P16" t="n">
-        <v>54.79819648970454</v>
+        <v>54.79819648970452</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.93943083784341</v>
+        <v>37.9394308378434</v>
       </c>
       <c r="R16" t="n">
-        <v>20.37220984952486</v>
+        <v>20.37220984952485</v>
       </c>
       <c r="S16" t="n">
-        <v>7.895981860400151</v>
+        <v>7.895981860400147</v>
       </c>
       <c r="T16" t="n">
-        <v>1.935895396133579</v>
+        <v>1.935895396133578</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02471355824851381</v>
+        <v>0.0247135582485138</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.010068377326191</v>
+        <v>1.01006837732619</v>
       </c>
       <c r="H17" t="n">
-        <v>10.34436276929186</v>
+        <v>10.34436276929185</v>
       </c>
       <c r="I17" t="n">
-        <v>38.94066111686801</v>
+        <v>38.94066111686799</v>
       </c>
       <c r="J17" t="n">
-        <v>85.72829094008887</v>
+        <v>85.72829094008883</v>
       </c>
       <c r="K17" t="n">
-        <v>128.4844853523066</v>
+        <v>128.4844853523065</v>
       </c>
       <c r="L17" t="n">
-        <v>159.396365454903</v>
+        <v>159.3963654549029</v>
       </c>
       <c r="M17" t="n">
         <v>177.3591689601776</v>
       </c>
       <c r="N17" t="n">
-        <v>180.2290257372557</v>
+        <v>180.2290257372556</v>
       </c>
       <c r="O17" t="n">
-        <v>170.1851583102184</v>
+        <v>170.1851583102183</v>
       </c>
       <c r="P17" t="n">
         <v>145.249095244978</v>
       </c>
       <c r="Q17" t="n">
-        <v>109.0760214819838</v>
+        <v>109.0760214819837</v>
       </c>
       <c r="R17" t="n">
-        <v>63.44870770721639</v>
+        <v>63.44870770721636</v>
       </c>
       <c r="S17" t="n">
-        <v>23.0169331483206</v>
+        <v>23.01693314832059</v>
       </c>
       <c r="T17" t="n">
-        <v>4.421574321745402</v>
+        <v>4.421574321745401</v>
       </c>
       <c r="U17" t="n">
-        <v>0.08080547018609525</v>
+        <v>0.08080547018609521</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5404342266042921</v>
+        <v>0.5404342266042919</v>
       </c>
       <c r="H18" t="n">
-        <v>5.219456872730927</v>
+        <v>5.219456872730924</v>
       </c>
       <c r="I18" t="n">
-        <v>18.60705560896357</v>
+        <v>18.60705560896356</v>
       </c>
       <c r="J18" t="n">
-        <v>51.0591827863292</v>
+        <v>51.05918278632917</v>
       </c>
       <c r="K18" t="n">
-        <v>87.26827596881677</v>
+        <v>87.26827596881672</v>
       </c>
       <c r="L18" t="n">
-        <v>117.3429666142346</v>
+        <v>117.3429666142345</v>
       </c>
       <c r="M18" t="n">
         <v>136.9337073286401</v>
       </c>
       <c r="N18" t="n">
-        <v>140.5579351026663</v>
+        <v>140.5579351026662</v>
       </c>
       <c r="O18" t="n">
         <v>128.5830503973817</v>
       </c>
       <c r="P18" t="n">
-        <v>103.199234025867</v>
+        <v>103.1992340258669</v>
       </c>
       <c r="Q18" t="n">
-        <v>68.98595496092683</v>
+        <v>68.9859549609268</v>
       </c>
       <c r="R18" t="n">
-        <v>33.55432856057176</v>
+        <v>33.55432856057175</v>
       </c>
       <c r="S18" t="n">
         <v>10.03832872661919</v>
       </c>
       <c r="T18" t="n">
-        <v>2.178329185304142</v>
+        <v>2.17832918530414</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03555488332922976</v>
+        <v>0.03555488332922974</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4530819012227527</v>
+        <v>0.4530819012227525</v>
       </c>
       <c r="H19" t="n">
-        <v>4.02830999450775</v>
+        <v>4.028309994507748</v>
       </c>
       <c r="I19" t="n">
         <v>13.6254084476806</v>
       </c>
       <c r="J19" t="n">
-        <v>32.03289041644862</v>
+        <v>32.0328904164486</v>
       </c>
       <c r="K19" t="n">
-        <v>52.63987906933435</v>
+        <v>52.63987906933433</v>
       </c>
       <c r="L19" t="n">
-        <v>67.36092193269909</v>
+        <v>67.36092193269906</v>
       </c>
       <c r="M19" t="n">
-        <v>71.02264747985386</v>
+        <v>71.02264747985382</v>
       </c>
       <c r="N19" t="n">
-        <v>69.33388766620547</v>
+        <v>69.33388766620544</v>
       </c>
       <c r="O19" t="n">
-        <v>64.04106727464874</v>
+        <v>64.04106727464871</v>
       </c>
       <c r="P19" t="n">
-        <v>54.79819648970454</v>
+        <v>54.79819648970452</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.93943083784341</v>
+        <v>37.9394308378434</v>
       </c>
       <c r="R19" t="n">
-        <v>20.37220984952486</v>
+        <v>20.37220984952485</v>
       </c>
       <c r="S19" t="n">
-        <v>7.895981860400151</v>
+        <v>7.895981860400147</v>
       </c>
       <c r="T19" t="n">
-        <v>1.935895396133579</v>
+        <v>1.935895396133578</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02471355824851381</v>
+        <v>0.0247135582485138</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.010068377326191</v>
+        <v>1.01006837732619</v>
       </c>
       <c r="H20" t="n">
-        <v>10.34436276929186</v>
+        <v>10.34436276929185</v>
       </c>
       <c r="I20" t="n">
-        <v>38.94066111686801</v>
+        <v>38.940661116868</v>
       </c>
       <c r="J20" t="n">
-        <v>85.72829094008887</v>
+        <v>85.72829094008884</v>
       </c>
       <c r="K20" t="n">
-        <v>128.4844853523066</v>
+        <v>128.4844853523065</v>
       </c>
       <c r="L20" t="n">
-        <v>159.396365454903</v>
+        <v>159.3963654549029</v>
       </c>
       <c r="M20" t="n">
         <v>177.3591689601776</v>
       </c>
       <c r="N20" t="n">
-        <v>180.2290257372557</v>
+        <v>180.2290257372556</v>
       </c>
       <c r="O20" t="n">
-        <v>170.1851583102184</v>
+        <v>170.1851583102183</v>
       </c>
       <c r="P20" t="n">
         <v>145.249095244978</v>
       </c>
       <c r="Q20" t="n">
-        <v>109.0760214819838</v>
+        <v>109.0760214819837</v>
       </c>
       <c r="R20" t="n">
-        <v>63.44870770721639</v>
+        <v>63.44870770721637</v>
       </c>
       <c r="S20" t="n">
-        <v>23.0169331483206</v>
+        <v>23.01693314832059</v>
       </c>
       <c r="T20" t="n">
         <v>4.421574321745402</v>
       </c>
       <c r="U20" t="n">
-        <v>0.08080547018609525</v>
+        <v>0.08080547018609523</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5404342266042921</v>
+        <v>0.5404342266042919</v>
       </c>
       <c r="H21" t="n">
-        <v>5.219456872730927</v>
+        <v>5.219456872730925</v>
       </c>
       <c r="I21" t="n">
-        <v>18.60705560896357</v>
+        <v>18.60705560896356</v>
       </c>
       <c r="J21" t="n">
-        <v>51.0591827863292</v>
+        <v>51.05918278632918</v>
       </c>
       <c r="K21" t="n">
-        <v>87.26827596881677</v>
+        <v>87.26827596881674</v>
       </c>
       <c r="L21" t="n">
-        <v>117.3429666142346</v>
+        <v>117.3429666142345</v>
       </c>
       <c r="M21" t="n">
         <v>136.9337073286401</v>
       </c>
       <c r="N21" t="n">
-        <v>140.5579351026663</v>
+        <v>140.5579351026662</v>
       </c>
       <c r="O21" t="n">
         <v>128.5830503973817</v>
       </c>
       <c r="P21" t="n">
-        <v>103.199234025867</v>
+        <v>103.1992340258669</v>
       </c>
       <c r="Q21" t="n">
-        <v>68.98595496092683</v>
+        <v>68.9859549609268</v>
       </c>
       <c r="R21" t="n">
-        <v>33.55432856057176</v>
+        <v>33.55432856057175</v>
       </c>
       <c r="S21" t="n">
         <v>10.03832872661919</v>
       </c>
       <c r="T21" t="n">
-        <v>2.178329185304142</v>
+        <v>2.178329185304141</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03555488332922976</v>
+        <v>0.03555488332922974</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4530819012227527</v>
+        <v>0.4530819012227525</v>
       </c>
       <c r="H22" t="n">
-        <v>4.02830999450775</v>
+        <v>4.028309994507748</v>
       </c>
       <c r="I22" t="n">
         <v>13.6254084476806</v>
       </c>
       <c r="J22" t="n">
-        <v>32.03289041644862</v>
+        <v>32.0328904164486</v>
       </c>
       <c r="K22" t="n">
-        <v>52.63987906933435</v>
+        <v>52.63987906933433</v>
       </c>
       <c r="L22" t="n">
-        <v>67.36092193269909</v>
+        <v>67.36092193269906</v>
       </c>
       <c r="M22" t="n">
-        <v>71.02264747985386</v>
+        <v>71.02264747985383</v>
       </c>
       <c r="N22" t="n">
-        <v>69.33388766620547</v>
+        <v>69.33388766620544</v>
       </c>
       <c r="O22" t="n">
-        <v>64.04106727464874</v>
+        <v>64.04106727464873</v>
       </c>
       <c r="P22" t="n">
-        <v>54.79819648970454</v>
+        <v>54.79819648970452</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.93943083784341</v>
+        <v>37.9394308378434</v>
       </c>
       <c r="R22" t="n">
-        <v>20.37220984952486</v>
+        <v>20.37220984952485</v>
       </c>
       <c r="S22" t="n">
-        <v>7.895981860400151</v>
+        <v>7.895981860400148</v>
       </c>
       <c r="T22" t="n">
         <v>1.935895396133579</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02471355824851381</v>
+        <v>0.0247135582485138</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33909,22 +33909,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33997,16 +33997,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34067,13 +34067,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34082,7 +34082,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34146,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34234,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34319,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34383,22 +34383,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34471,16 +34471,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,13 +34541,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34556,7 +34556,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34780,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
@@ -34792,10 +34792,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>55.51629994036219</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35257,22 +35257,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1784674257276</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.77900158547635</v>
+        <v>73.77900158547631</v>
       </c>
       <c r="K11" t="n">
-        <v>232.5400468784908</v>
+        <v>232.5400468784907</v>
       </c>
       <c r="L11" t="n">
-        <v>341.2911650353662</v>
+        <v>341.2911650353661</v>
       </c>
       <c r="M11" t="n">
-        <v>396.5264692257374</v>
+        <v>396.5264692257373</v>
       </c>
       <c r="N11" t="n">
-        <v>388.162886552649</v>
+        <v>388.1628865526488</v>
       </c>
       <c r="O11" t="n">
-        <v>320.887128151277</v>
+        <v>320.8871281512769</v>
       </c>
       <c r="P11" t="n">
         <v>235.8148076611911</v>
       </c>
       <c r="Q11" t="n">
-        <v>99.08532226743897</v>
+        <v>99.08532226743891</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,10 +35491,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>213.8920740070364</v>
+        <v>121.8578402191578</v>
       </c>
       <c r="L12" t="n">
-        <v>257.5946983499414</v>
+        <v>349.6289321378195</v>
       </c>
       <c r="M12" t="n">
         <v>460.5047371566217</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>30.3703872434515</v>
+        <v>30.37038724345148</v>
       </c>
       <c r="L13" t="n">
-        <v>94.95094719301522</v>
+        <v>94.9509471930152</v>
       </c>
       <c r="M13" t="n">
         <v>110.6065244416944</v>
       </c>
       <c r="N13" t="n">
-        <v>113.4660600454341</v>
+        <v>113.466060045434</v>
       </c>
       <c r="O13" t="n">
-        <v>88.62619518868841</v>
+        <v>88.62619518868838</v>
       </c>
       <c r="P13" t="n">
-        <v>52.07675575459803</v>
+        <v>52.076755754598</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.77900158547635</v>
+        <v>73.77900158547631</v>
       </c>
       <c r="K14" t="n">
-        <v>232.5400468784908</v>
+        <v>232.5400468784907</v>
       </c>
       <c r="L14" t="n">
-        <v>341.2911650353662</v>
+        <v>341.2911650353661</v>
       </c>
       <c r="M14" t="n">
-        <v>396.5264692257374</v>
+        <v>396.5264692257373</v>
       </c>
       <c r="N14" t="n">
-        <v>388.162886552649</v>
+        <v>388.1628865526488</v>
       </c>
       <c r="O14" t="n">
-        <v>320.887128151277</v>
+        <v>320.8871281512769</v>
       </c>
       <c r="P14" t="n">
         <v>235.8148076611911</v>
       </c>
       <c r="Q14" t="n">
-        <v>99.08532226743897</v>
+        <v>99.08532226743891</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,10 +35728,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>213.8920740070363</v>
       </c>
       <c r="L15" t="n">
-        <v>349.6289321378196</v>
+        <v>349.6289321378195</v>
       </c>
       <c r="M15" t="n">
         <v>460.5047371566217</v>
@@ -35743,10 +35743,10 @@
         <v>379.8491252296668</v>
       </c>
       <c r="P15" t="n">
-        <v>287.6875952514739</v>
+        <v>195.6533614635954</v>
       </c>
       <c r="Q15" t="n">
-        <v>121.8578402191582</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>30.3703872434515</v>
+        <v>30.37038724345148</v>
       </c>
       <c r="L16" t="n">
-        <v>94.95094719301522</v>
+        <v>94.9509471930152</v>
       </c>
       <c r="M16" t="n">
         <v>110.6065244416944</v>
       </c>
       <c r="N16" t="n">
-        <v>113.4660600454341</v>
+        <v>113.466060045434</v>
       </c>
       <c r="O16" t="n">
-        <v>88.62619518868841</v>
+        <v>88.62619518868838</v>
       </c>
       <c r="P16" t="n">
-        <v>52.07675575459803</v>
+        <v>52.076755754598</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.77900158547635</v>
+        <v>73.77900158547631</v>
       </c>
       <c r="K17" t="n">
-        <v>232.5400468784908</v>
+        <v>232.5400468784907</v>
       </c>
       <c r="L17" t="n">
-        <v>341.2911650353662</v>
+        <v>341.2911650353661</v>
       </c>
       <c r="M17" t="n">
-        <v>396.5264692257374</v>
+        <v>396.5264692257373</v>
       </c>
       <c r="N17" t="n">
-        <v>388.162886552649</v>
+        <v>388.1628865526488</v>
       </c>
       <c r="O17" t="n">
-        <v>320.887128151277</v>
+        <v>320.8871281512769</v>
       </c>
       <c r="P17" t="n">
         <v>235.8148076611911</v>
       </c>
       <c r="Q17" t="n">
-        <v>99.08532226743897</v>
+        <v>99.08532226743891</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,10 +35965,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>121.8578402191582</v>
+        <v>213.8920740070363</v>
       </c>
       <c r="L18" t="n">
-        <v>349.6289321378196</v>
+        <v>349.6289321378195</v>
       </c>
       <c r="M18" t="n">
         <v>460.5047371566217</v>
@@ -35980,7 +35980,7 @@
         <v>379.8491252296668</v>
       </c>
       <c r="P18" t="n">
-        <v>287.6875952514739</v>
+        <v>195.6533614635954</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>30.3703872434515</v>
+        <v>30.37038724345148</v>
       </c>
       <c r="L19" t="n">
-        <v>94.95094719301522</v>
+        <v>94.9509471930152</v>
       </c>
       <c r="M19" t="n">
         <v>110.6065244416944</v>
       </c>
       <c r="N19" t="n">
-        <v>113.4660600454341</v>
+        <v>113.466060045434</v>
       </c>
       <c r="O19" t="n">
-        <v>88.62619518868841</v>
+        <v>88.62619518868838</v>
       </c>
       <c r="P19" t="n">
-        <v>52.07675575459803</v>
+        <v>52.076755754598</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>73.77900158547635</v>
+        <v>73.77900158547632</v>
       </c>
       <c r="K20" t="n">
-        <v>232.5400468784908</v>
+        <v>232.5400468784907</v>
       </c>
       <c r="L20" t="n">
-        <v>341.2911650353662</v>
+        <v>341.2911650353661</v>
       </c>
       <c r="M20" t="n">
-        <v>396.5264692257374</v>
+        <v>396.5264692257373</v>
       </c>
       <c r="N20" t="n">
-        <v>388.162886552649</v>
+        <v>388.1628865526488</v>
       </c>
       <c r="O20" t="n">
         <v>320.887128151277</v>
@@ -36141,7 +36141,7 @@
         <v>235.8148076611911</v>
       </c>
       <c r="Q20" t="n">
-        <v>99.08532226743897</v>
+        <v>99.08532226743893</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>50.31259146007134</v>
+        <v>50.31259146007132</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>213.8920740070363</v>
       </c>
       <c r="L21" t="n">
-        <v>282.0927122861519</v>
+        <v>349.6289321378195</v>
       </c>
       <c r="M21" t="n">
         <v>460.5047371566217</v>
       </c>
       <c r="N21" t="n">
-        <v>488.5585973628865</v>
+        <v>207.1303035041824</v>
       </c>
       <c r="O21" t="n">
         <v>379.8491252296668</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>30.3703872434515</v>
+        <v>30.37038724345148</v>
       </c>
       <c r="L22" t="n">
-        <v>94.95094719301522</v>
+        <v>94.9509471930152</v>
       </c>
       <c r="M22" t="n">
         <v>110.6065244416944</v>
       </c>
       <c r="N22" t="n">
-        <v>113.4660600454341</v>
+        <v>113.466060045434</v>
       </c>
       <c r="O22" t="n">
-        <v>88.62619518868841</v>
+        <v>88.6261951886884</v>
       </c>
       <c r="P22" t="n">
-        <v>52.07675575459803</v>
+        <v>52.07675575459801</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36457,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
-        <v>365.2844632307146</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279158</v>
       </c>
       <c r="N27" t="n">
         <v>559.3197334338902</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K29" t="n">
         <v>297.2230414343419</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36922,7 +36922,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
-        <v>214.4070918624587</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M33" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N33" t="n">
         <v>559.3197334338902</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37396,13 +37396,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
         <v>173.8110948137341</v>
@@ -37557,10 +37557,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37633,16 +37633,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37718,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181304</v>
       </c>
       <c r="K41" t="n">
         <v>297.2230414343419</v>
@@ -37794,13 +37794,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932188</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181304</v>
       </c>
       <c r="K44" t="n">
         <v>297.2230414343419</v>
@@ -38031,10 +38031,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K45" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38107,10 +38107,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38192,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_6_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_6_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>610621.118643354</v>
+        <v>676328.171209735</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>405687.0519298027</v>
+        <v>405687.0519298025</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7869734.726073004</v>
+        <v>7869734.726073005</v>
       </c>
     </row>
     <row r="11">
@@ -658,76 +658,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3.265316057196634</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F2" t="n">
+      <c r="Y2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>62.86349518004438</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>70.64856914772001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -800,10 +800,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -980,7 +980,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -992,13 +992,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>218.7602311933279</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.171352940466351</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1104,22 +1104,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,16 +1135,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1177,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,16 +1262,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>241.0142888776591</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>34.66067414728059</v>
+        <v>139.0443297585467</v>
       </c>
     </row>
     <row r="10">
@@ -1375,22 +1375,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>343.5155354898027</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>414.2926691378088</v>
       </c>
       <c r="H11" t="n">
-        <v>39.0526421414349</v>
+        <v>329.1304393464753</v>
       </c>
       <c r="I11" t="n">
-        <v>171.5352284535379</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>86.42041023393332</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1460,7 +1460,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>105.8052280283266</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>70.78957724245151</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>66.60350559207139</v>
       </c>
       <c r="S12" t="n">
         <v>161.6448423772186</v>
@@ -1505,13 +1505,13 @@
         <v>197.9863995095175</v>
       </c>
       <c r="U12" t="n">
-        <v>75.83000041467257</v>
+        <v>225.9058271976456</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>28.62459273534546</v>
       </c>
       <c r="T13" t="n">
         <v>226.0096940321479</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>28.62459273534546</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.2926691378088</v>
       </c>
       <c r="H14" t="n">
-        <v>329.1304393464753</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>186.0031364379248</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>80.79671488967601</v>
+        <v>251.2648474376504</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>205.1285568565046</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1688,16 +1688,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>47.6607413745174</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>136.8030829366063</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>66.60350559207139</v>
+        <v>66.60350559207137</v>
       </c>
       <c r="S15" t="n">
         <v>161.6448423772186</v>
@@ -1745,13 +1745,13 @@
         <v>225.9058271976456</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>10.81152189031962</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>193.8209438199395</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>228.2062988327026</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>327.7165051416146</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>218.674275242386</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>167.5655346850871</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>81.25691190119531</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>66.60350559207139</v>
+        <v>66.60350559207137</v>
       </c>
       <c r="S18" t="n">
         <v>161.6448423772186</v>
@@ -1988,10 +1988,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>81.34720132736796</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2055,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>2.496643443665408</v>
       </c>
       <c r="U19" t="n">
-        <v>193.8209438199395</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,13 +2083,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>329.1304393464753</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>86.42041023393331</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>186.0031364379248</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>218.674275242386</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2648474376504</v>
+        <v>97.32181541764872</v>
       </c>
       <c r="V20" t="n">
-        <v>187.2368676195767</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2165,16 +2165,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>1.555310432046248</v>
       </c>
       <c r="E21" t="n">
-        <v>97.30085757351381</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>136.8030829366063</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>66.60350559207139</v>
+        <v>66.60350559207137</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>161.6448423772186</v>
       </c>
       <c r="T21" t="n">
         <v>197.9863995095175</v>
@@ -2225,7 +2225,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>81.92730862249864</v>
       </c>
       <c r="H22" t="n">
-        <v>158.1988625129318</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>27.09564397881709</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>26.42922421849669</v>
       </c>
       <c r="G23" t="n">
         <v>413.784170020795</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,10 +2374,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>105.0839683962665</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>162.5776147681365</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>162.3364906735232</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,10 +2557,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2602,10 +2602,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>309.5606912716569</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>241.7825302966864</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2809,10 +2809,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>75.68973921670441</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>44.44625475318956</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T30" t="n">
         <v>196.8897623984489</v>
@@ -3003,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>189.5968436493439</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3037,16 +3037,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>81.11593663322328</v>
+        <v>145.7193814678355</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3088,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3125,7 +3125,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H33" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553069</v>
       </c>
       <c r="I33" t="n">
         <v>61.42221998250818</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>155.8860385675338</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3268,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>254.3271660412493</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>233.6257157225927</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3362,10 +3362,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H36" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>79.57033125550488</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3483,10 +3483,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>113.9495684430214</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
@@ -3550,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
@@ -3565,13 +3565,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>231.7173056877558</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>94.63926978364033</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>57.68157701938526</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,25 +3742,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>204.3589581841899</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>6.305787840852513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3830,7 +3830,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933832</v>
       </c>
       <c r="G42" t="n">
         <v>136.5310119231965</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3906,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>60.5284926732925</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>150.5540262346244</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>317.3582100207906</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3994,10 +3994,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>244.7200466727674</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T45" t="n">
-        <v>196.8897623984489</v>
+        <v>196.889762398448</v>
       </c>
       <c r="U45" t="n">
         <v>225.8879277888686</v>
@@ -4143,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>141.5548385065701</v>
       </c>
       <c r="U46" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X2" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y2" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>257.2326523711826</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="C3" t="n">
-        <v>82.77962309005554</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="E3" t="n">
         <v>19.28114311021272</v>
@@ -4415,19 +4415,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>383.2428491569326</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>621.8469951458151</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>860.4511411346975</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4439,22 +4439,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U3" t="n">
-        <v>735.8335372470253</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V3" t="n">
-        <v>500.6814290152826</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W3" t="n">
-        <v>257.2326523711826</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X3" t="n">
-        <v>257.2326523711826</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="Y3" t="n">
-        <v>257.2326523711826</v>
+        <v>90.64333416851576</v>
       </c>
     </row>
     <row r="4">
@@ -4524,7 +4524,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C5" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E5" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F5" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H5" t="n">
         <v>19.28114311021272</v>
@@ -4594,25 +4594,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X5" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y5" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>343.4227147053767</v>
+        <v>307.1033079837604</v>
       </c>
       <c r="C6" t="n">
-        <v>168.9696854242497</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>74.24228005117135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>304.2053859195205</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M6" t="n">
-        <v>542.809531908403</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N6" t="n">
-        <v>781.4136778972854</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4673,25 +4673,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>790.6398109613051</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>555.4877027295624</v>
+        <v>514.8636067487143</v>
       </c>
       <c r="W6" t="n">
-        <v>555.4877027295624</v>
+        <v>514.8636067487143</v>
       </c>
       <c r="X6" t="n">
-        <v>347.6362025240296</v>
+        <v>514.8636067487143</v>
       </c>
       <c r="Y6" t="n">
-        <v>343.4227147053767</v>
+        <v>307.1033079837604</v>
       </c>
     </row>
     <row r="7">
@@ -4752,19 +4752,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
         <v>19.28114311021272</v>
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
         <v>19.28114311021272</v>
@@ -4825,16 +4825,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>752.9257720901863</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T8" t="n">
-        <v>527.5764290961142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U8" t="n">
         <v>506.1786963984129</v>
@@ -4849,7 +4849,7 @@
         <v>506.1786963984129</v>
       </c>
       <c r="Y8" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4892,16 +4892,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
-        <v>613.2059550252818</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4910,25 +4910,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U9" t="n">
-        <v>533.6469426057913</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V9" t="n">
-        <v>298.4948343740486</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W9" t="n">
-        <v>55.04605772994853</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="X9" t="n">
-        <v>55.04605772994853</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>178.5185981156682</v>
       </c>
     </row>
     <row r="10">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1470.1544984804</v>
+        <v>1498.371397518799</v>
       </c>
       <c r="C11" t="n">
-        <v>1470.1544984804</v>
+        <v>1498.371397518799</v>
       </c>
       <c r="D11" t="n">
-        <v>1470.1544984804</v>
+        <v>1140.105698912048</v>
       </c>
       <c r="E11" t="n">
-        <v>1084.366245882156</v>
+        <v>793.1203095284093</v>
       </c>
       <c r="F11" t="n">
-        <v>673.3803410925482</v>
+        <v>793.1203095284093</v>
       </c>
       <c r="G11" t="n">
-        <v>254.9028975190039</v>
+        <v>374.642865954865</v>
       </c>
       <c r="H11" t="n">
-        <v>215.4557842448272</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="I11" t="n">
         <v>42.18787671600102</v>
       </c>
       <c r="J11" t="n">
-        <v>115.2290882856225</v>
+        <v>115.2290882856227</v>
       </c>
       <c r="K11" t="n">
-        <v>345.4437346953283</v>
+        <v>345.4437346953284</v>
       </c>
       <c r="L11" t="n">
-        <v>683.3219880803408</v>
+        <v>683.3219880803409</v>
       </c>
       <c r="M11" t="n">
         <v>1075.883192613821</v>
@@ -5065,28 +5065,28 @@
         <v>2109.393835800051</v>
       </c>
       <c r="R11" t="n">
-        <v>2022.100492129411</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="S11" t="n">
-        <v>2022.100492129411</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="T11" t="n">
-        <v>1801.217385823971</v>
+        <v>1888.510729494611</v>
       </c>
       <c r="U11" t="n">
-        <v>1801.217385823971</v>
+        <v>1888.510729494611</v>
       </c>
       <c r="V11" t="n">
-        <v>1470.1544984804</v>
+        <v>1888.510729494611</v>
       </c>
       <c r="W11" t="n">
-        <v>1470.1544984804</v>
+        <v>1888.510729494611</v>
       </c>
       <c r="X11" t="n">
-        <v>1470.1544984804</v>
+        <v>1888.510729494611</v>
       </c>
       <c r="Y11" t="n">
-        <v>1470.1544984804</v>
+        <v>1498.371397518799</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>596.3173941410586</v>
+        <v>631.6867383692152</v>
       </c>
       <c r="C12" t="n">
-        <v>421.8643648599316</v>
+        <v>457.2337090880882</v>
       </c>
       <c r="D12" t="n">
-        <v>272.9299551986803</v>
+        <v>308.2992994268369</v>
       </c>
       <c r="E12" t="n">
-        <v>113.6925001932248</v>
+        <v>149.0618444213814</v>
       </c>
       <c r="F12" t="n">
-        <v>113.6925001932248</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="G12" t="n">
-        <v>113.6925001932248</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="H12" t="n">
-        <v>113.6925001932248</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="I12" t="n">
         <v>42.18787671600102</v>
       </c>
       <c r="J12" t="n">
-        <v>42.18787671600102</v>
+        <v>91.99734226147163</v>
       </c>
       <c r="K12" t="n">
-        <v>162.8271385329672</v>
+        <v>303.7504955284376</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9597813494086</v>
+        <v>649.8831383448789</v>
       </c>
       <c r="M12" t="n">
-        <v>964.859471134464</v>
+        <v>1105.782828129934</v>
       </c>
       <c r="N12" t="n">
-        <v>1448.532482523722</v>
+        <v>1589.455839519192</v>
       </c>
       <c r="O12" t="n">
-        <v>1824.583116501092</v>
+        <v>1686.892462576445</v>
       </c>
       <c r="P12" t="n">
-        <v>2109.393835800051</v>
+        <v>1971.703181875404</v>
       </c>
       <c r="Q12" t="n">
         <v>2109.393835800051</v>
       </c>
       <c r="R12" t="n">
-        <v>2109.393835800051</v>
+        <v>2042.117567525231</v>
       </c>
       <c r="S12" t="n">
-        <v>1946.116217237204</v>
+        <v>1878.839948962384</v>
       </c>
       <c r="T12" t="n">
-        <v>1746.129955106378</v>
+        <v>1678.853686831559</v>
       </c>
       <c r="U12" t="n">
-        <v>1669.533995091557</v>
+        <v>1450.665982591513</v>
       </c>
       <c r="V12" t="n">
-        <v>1434.381886859815</v>
+        <v>1215.51387435977</v>
       </c>
       <c r="W12" t="n">
-        <v>1180.144530131613</v>
+        <v>1215.51387435977</v>
       </c>
       <c r="X12" t="n">
-        <v>972.2930299260804</v>
+        <v>1007.662374154237</v>
       </c>
       <c r="Y12" t="n">
-        <v>764.5327311611265</v>
+        <v>799.9020753892833</v>
       </c>
     </row>
     <row r="13">
@@ -5202,7 +5202,7 @@
         <v>42.18787671600102</v>
       </c>
       <c r="K13" t="n">
-        <v>72.25456008701798</v>
+        <v>72.25456008701799</v>
       </c>
       <c r="L13" t="n">
         <v>166.255997808103</v>
@@ -5226,13 +5226,13 @@
         <v>527.3837778842137</v>
       </c>
       <c r="S13" t="n">
-        <v>527.3837778842137</v>
+        <v>498.4700478485112</v>
       </c>
       <c r="T13" t="n">
-        <v>299.0911576497209</v>
+        <v>270.1774276140184</v>
       </c>
       <c r="U13" t="n">
-        <v>299.0911576497209</v>
+        <v>270.1774276140184</v>
       </c>
       <c r="V13" t="n">
         <v>270.1774276140184</v>
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1118.69681715986</v>
+        <v>871.6512250791529</v>
       </c>
       <c r="C14" t="n">
-        <v>1118.69681715986</v>
+        <v>871.6512250791529</v>
       </c>
       <c r="D14" t="n">
-        <v>760.4311185531092</v>
+        <v>871.6512250791529</v>
       </c>
       <c r="E14" t="n">
-        <v>374.642865954865</v>
+        <v>871.6512250791529</v>
       </c>
       <c r="F14" t="n">
-        <v>374.642865954865</v>
+        <v>460.6653202895453</v>
       </c>
       <c r="G14" t="n">
-        <v>374.642865954865</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="H14" t="n">
         <v>42.18787671600102</v>
@@ -5278,13 +5278,13 @@
         <v>42.18787671600102</v>
       </c>
       <c r="J14" t="n">
-        <v>115.2290882856226</v>
+        <v>115.2290882856227</v>
       </c>
       <c r="K14" t="n">
-        <v>345.4437346953284</v>
+        <v>345.4437346953285</v>
       </c>
       <c r="L14" t="n">
-        <v>683.3219880803408</v>
+        <v>683.321988080341</v>
       </c>
       <c r="M14" t="n">
         <v>1075.883192613821</v>
@@ -5305,25 +5305,25 @@
         <v>2109.393835800051</v>
       </c>
       <c r="S14" t="n">
-        <v>1921.511879802147</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="T14" t="n">
-        <v>1921.511879802147</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="U14" t="n">
-        <v>1839.899036479242</v>
+        <v>1855.590959600404</v>
       </c>
       <c r="V14" t="n">
-        <v>1508.836149135671</v>
+        <v>1855.590959600404</v>
       </c>
       <c r="W14" t="n">
-        <v>1508.836149135671</v>
+        <v>1855.590959600404</v>
       </c>
       <c r="X14" t="n">
-        <v>1508.836149135671</v>
+        <v>1648.390397119086</v>
       </c>
       <c r="Y14" t="n">
-        <v>1118.69681715986</v>
+        <v>1258.251065143275</v>
       </c>
     </row>
     <row r="15">
@@ -5333,16 +5333,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>377.4493816410136</v>
+        <v>809.5322608961482</v>
       </c>
       <c r="C15" t="n">
-        <v>329.3072186364506</v>
+        <v>635.0792316150212</v>
       </c>
       <c r="D15" t="n">
-        <v>180.3728089751993</v>
+        <v>486.1448219537698</v>
       </c>
       <c r="E15" t="n">
-        <v>180.3728089751993</v>
+        <v>326.9073669483143</v>
       </c>
       <c r="F15" t="n">
         <v>180.3728089751993</v>
@@ -5357,25 +5357,25 @@
         <v>42.18787671600102</v>
       </c>
       <c r="J15" t="n">
-        <v>42.18787671600102</v>
+        <v>91.99734226147163</v>
       </c>
       <c r="K15" t="n">
-        <v>253.941029982967</v>
+        <v>303.7504955284376</v>
       </c>
       <c r="L15" t="n">
-        <v>600.0736727994083</v>
+        <v>649.8831383448789</v>
       </c>
       <c r="M15" t="n">
-        <v>1055.973362584464</v>
+        <v>1105.782828129934</v>
       </c>
       <c r="N15" t="n">
-        <v>1539.646373973721</v>
+        <v>1589.455839519192</v>
       </c>
       <c r="O15" t="n">
-        <v>1915.697007951092</v>
+        <v>1686.892462576445</v>
       </c>
       <c r="P15" t="n">
-        <v>2109.393835800051</v>
+        <v>1971.703181875404</v>
       </c>
       <c r="Q15" t="n">
         <v>2109.393835800051</v>
@@ -5393,16 +5393,16 @@
         <v>1450.665982591513</v>
       </c>
       <c r="V15" t="n">
-        <v>1215.51387435977</v>
+        <v>1450.665982591513</v>
       </c>
       <c r="W15" t="n">
-        <v>961.2765176315684</v>
+        <v>1196.428625863311</v>
       </c>
       <c r="X15" t="n">
-        <v>753.4250174260355</v>
+        <v>1185.50789668117</v>
       </c>
       <c r="Y15" t="n">
-        <v>545.6647186610817</v>
+        <v>977.7475979162161</v>
       </c>
     </row>
     <row r="16">
@@ -5439,7 +5439,7 @@
         <v>42.18787671600102</v>
       </c>
       <c r="K16" t="n">
-        <v>72.25456008701798</v>
+        <v>72.25456008701799</v>
       </c>
       <c r="L16" t="n">
         <v>166.255997808103</v>
@@ -5469,10 +5469,10 @@
         <v>527.3837778842137</v>
       </c>
       <c r="U16" t="n">
-        <v>527.3837778842137</v>
+        <v>331.6050467529616</v>
       </c>
       <c r="V16" t="n">
-        <v>272.6992896783269</v>
+        <v>331.6050467529616</v>
       </c>
       <c r="W16" t="n">
         <v>42.18787671600102</v>
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>759.002902184563</v>
+        <v>1197.227732710603</v>
       </c>
       <c r="C17" t="n">
-        <v>759.002902184563</v>
+        <v>1197.227732710603</v>
       </c>
       <c r="D17" t="n">
-        <v>759.002902184563</v>
+        <v>838.9620341038528</v>
       </c>
       <c r="E17" t="n">
-        <v>373.2146495863188</v>
+        <v>453.1737815056086</v>
       </c>
       <c r="F17" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="G17" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="H17" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="I17" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="J17" t="n">
-        <v>115.2290882856225</v>
+        <v>115.2290882856226</v>
       </c>
       <c r="K17" t="n">
-        <v>345.4437346953283</v>
+        <v>345.4437346953284</v>
       </c>
       <c r="L17" t="n">
-        <v>683.3219880803408</v>
+        <v>683.3219880803413</v>
       </c>
       <c r="M17" t="n">
         <v>1075.883192613821</v>
       </c>
       <c r="N17" t="n">
-        <v>1460.164450300943</v>
+        <v>1460.164450300944</v>
       </c>
       <c r="O17" t="n">
-        <v>1777.842707170707</v>
+        <v>1777.842707170708</v>
       </c>
       <c r="P17" t="n">
-        <v>2011.299366755286</v>
+        <v>2011.299366755287</v>
       </c>
       <c r="Q17" t="n">
         <v>2109.393835800051</v>
@@ -5545,22 +5545,22 @@
         <v>2109.393835800051</v>
       </c>
       <c r="T17" t="n">
-        <v>1888.510729494611</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="U17" t="n">
-        <v>1888.510729494611</v>
+        <v>1940.135719956529</v>
       </c>
       <c r="V17" t="n">
-        <v>1888.510729494611</v>
+        <v>1940.135719956529</v>
       </c>
       <c r="W17" t="n">
-        <v>1535.742074224496</v>
+        <v>1587.367064686415</v>
       </c>
       <c r="X17" t="n">
-        <v>1535.742074224496</v>
+        <v>1587.367064686415</v>
       </c>
       <c r="Y17" t="n">
-        <v>1145.602742248685</v>
+        <v>1197.227732710603</v>
       </c>
     </row>
     <row r="18">
@@ -5570,58 +5570,58 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>671.3473286369498</v>
+        <v>753.425017426036</v>
       </c>
       <c r="C18" t="n">
-        <v>496.8942993558228</v>
+        <v>578.971988144909</v>
       </c>
       <c r="D18" t="n">
-        <v>347.9598896945715</v>
+        <v>430.0375784836577</v>
       </c>
       <c r="E18" t="n">
-        <v>188.7224346891161</v>
+        <v>270.8001234782022</v>
       </c>
       <c r="F18" t="n">
-        <v>42.18787671600102</v>
+        <v>124.2655655050872</v>
       </c>
       <c r="G18" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="H18" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="I18" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="J18" t="n">
-        <v>42.18787671600102</v>
+        <v>91.99734226147164</v>
       </c>
       <c r="K18" t="n">
-        <v>253.941029982967</v>
+        <v>303.7504955284376</v>
       </c>
       <c r="L18" t="n">
-        <v>600.0736727994083</v>
+        <v>649.8831383448789</v>
       </c>
       <c r="M18" t="n">
-        <v>1055.973362584464</v>
+        <v>1105.782828129934</v>
       </c>
       <c r="N18" t="n">
-        <v>1539.646373973721</v>
+        <v>1310.841828599075</v>
       </c>
       <c r="O18" t="n">
-        <v>1915.697007951092</v>
+        <v>1686.892462576445</v>
       </c>
       <c r="P18" t="n">
-        <v>2109.393835800051</v>
+        <v>1971.703181875405</v>
       </c>
       <c r="Q18" t="n">
         <v>2109.393835800051</v>
       </c>
       <c r="R18" t="n">
-        <v>2042.117567525231</v>
+        <v>2042.117567525232</v>
       </c>
       <c r="S18" t="n">
-        <v>1878.839948962384</v>
+        <v>1878.839948962385</v>
       </c>
       <c r="T18" t="n">
         <v>1678.853686831559</v>
@@ -5633,13 +5633,13 @@
         <v>1215.51387435977</v>
       </c>
       <c r="W18" t="n">
-        <v>961.2765176315684</v>
+        <v>961.2765176315688</v>
       </c>
       <c r="X18" t="n">
-        <v>879.1076274019038</v>
+        <v>753.425017426036</v>
       </c>
       <c r="Y18" t="n">
-        <v>671.3473286369498</v>
+        <v>753.425017426036</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="C19" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="D19" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="E19" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="F19" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="G19" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="H19" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="I19" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="J19" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="K19" t="n">
-        <v>72.25456008701798</v>
+        <v>72.25456008701799</v>
       </c>
       <c r="L19" t="n">
         <v>166.255997808103</v>
@@ -5703,22 +5703,22 @@
         <v>527.3837778842137</v>
       </c>
       <c r="T19" t="n">
-        <v>527.3837778842137</v>
+        <v>524.8619158199052</v>
       </c>
       <c r="U19" t="n">
-        <v>331.6050467529616</v>
+        <v>524.8619158199052</v>
       </c>
       <c r="V19" t="n">
-        <v>331.6050467529616</v>
+        <v>270.1774276140184</v>
       </c>
       <c r="W19" t="n">
-        <v>42.18787671600102</v>
+        <v>270.1774276140184</v>
       </c>
       <c r="X19" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="Y19" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>796.938646254657</v>
+        <v>732.9085645616155</v>
       </c>
       <c r="C20" t="n">
-        <v>427.9761293142453</v>
+        <v>732.9085645616155</v>
       </c>
       <c r="D20" t="n">
-        <v>427.9761293142453</v>
+        <v>374.642865954865</v>
       </c>
       <c r="E20" t="n">
-        <v>42.18787671600102</v>
+        <v>374.642865954865</v>
       </c>
       <c r="F20" t="n">
-        <v>42.18787671600102</v>
+        <v>374.642865954865</v>
       </c>
       <c r="G20" t="n">
-        <v>42.18787671600102</v>
+        <v>374.642865954865</v>
       </c>
       <c r="H20" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="I20" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="J20" t="n">
-        <v>115.2290882856227</v>
+        <v>115.2290882856226</v>
       </c>
       <c r="K20" t="n">
         <v>345.4437346953284</v>
@@ -5767,37 +5767,37 @@
         <v>1460.164450300943</v>
       </c>
       <c r="O20" t="n">
-        <v>1777.842707170707</v>
+        <v>1777.842707170708</v>
       </c>
       <c r="P20" t="n">
-        <v>2011.299366755286</v>
+        <v>2011.299366755287</v>
       </c>
       <c r="Q20" t="n">
         <v>2109.393835800051</v>
       </c>
       <c r="R20" t="n">
-        <v>2022.100492129411</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="S20" t="n">
-        <v>1834.218536131508</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="T20" t="n">
-        <v>1613.335429826067</v>
+        <v>1888.510729494611</v>
       </c>
       <c r="U20" t="n">
-        <v>1359.53255362642</v>
+        <v>1790.20586543638</v>
       </c>
       <c r="V20" t="n">
-        <v>1170.404404515737</v>
+        <v>1459.142978092809</v>
       </c>
       <c r="W20" t="n">
-        <v>1170.404404515737</v>
+        <v>1106.374322822695</v>
       </c>
       <c r="X20" t="n">
-        <v>796.938646254657</v>
+        <v>732.9085645616155</v>
       </c>
       <c r="Y20" t="n">
-        <v>796.938646254657</v>
+        <v>732.9085645616155</v>
       </c>
     </row>
     <row r="21">
@@ -5807,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>748.5785004093934</v>
+        <v>377.4493816410141</v>
       </c>
       <c r="C21" t="n">
-        <v>574.1254711282664</v>
+        <v>202.9963523598871</v>
       </c>
       <c r="D21" t="n">
-        <v>425.1910614670152</v>
+        <v>201.4253317214565</v>
       </c>
       <c r="E21" t="n">
-        <v>326.9073669483143</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="F21" t="n">
-        <v>180.3728089751993</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="G21" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="H21" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="I21" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="J21" t="n">
-        <v>91.99734226147163</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="K21" t="n">
-        <v>303.7504955284376</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="L21" t="n">
-        <v>649.8831383448789</v>
+        <v>388.3205195324424</v>
       </c>
       <c r="M21" t="n">
-        <v>1105.782828129934</v>
+        <v>844.2202093174978</v>
       </c>
       <c r="N21" t="n">
-        <v>1310.841828599075</v>
+        <v>1327.893220706756</v>
       </c>
       <c r="O21" t="n">
-        <v>1686.892462576445</v>
+        <v>1703.943854684126</v>
       </c>
       <c r="P21" t="n">
         <v>1971.703181875404</v>
@@ -5855,28 +5855,28 @@
         <v>2109.393835800051</v>
       </c>
       <c r="R21" t="n">
-        <v>2042.117567525231</v>
+        <v>2042.117567525232</v>
       </c>
       <c r="S21" t="n">
-        <v>2042.117567525231</v>
+        <v>1878.839948962385</v>
       </c>
       <c r="T21" t="n">
-        <v>1842.131305394406</v>
+        <v>1678.853686831559</v>
       </c>
       <c r="U21" t="n">
-        <v>1613.94360115436</v>
+        <v>1450.665982591513</v>
       </c>
       <c r="V21" t="n">
-        <v>1378.791492922617</v>
+        <v>1215.51387435977</v>
       </c>
       <c r="W21" t="n">
-        <v>1124.554136194415</v>
+        <v>961.2765176315688</v>
       </c>
       <c r="X21" t="n">
-        <v>1124.554136194415</v>
+        <v>753.425017426036</v>
       </c>
       <c r="Y21" t="n">
-        <v>916.7938374294615</v>
+        <v>545.6647186610821</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>500.0144405318732</v>
+        <v>124.9427339104441</v>
       </c>
       <c r="C22" t="n">
-        <v>500.0144405318732</v>
+        <v>124.9427339104441</v>
       </c>
       <c r="D22" t="n">
-        <v>349.8978011195375</v>
+        <v>124.9427339104441</v>
       </c>
       <c r="E22" t="n">
-        <v>201.9847075371443</v>
+        <v>124.9427339104441</v>
       </c>
       <c r="F22" t="n">
-        <v>201.9847075371443</v>
+        <v>124.9427339104441</v>
       </c>
       <c r="G22" t="n">
-        <v>201.9847075371443</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="H22" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="I22" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="J22" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="K22" t="n">
-        <v>72.25456008701799</v>
+        <v>72.25456008701801</v>
       </c>
       <c r="L22" t="n">
-        <v>166.255997808103</v>
+        <v>166.2559978081031</v>
       </c>
       <c r="M22" t="n">
-        <v>275.7564570053805</v>
+        <v>275.7564570053806</v>
       </c>
       <c r="N22" t="n">
-        <v>388.0878564503602</v>
+        <v>388.0878564503603</v>
       </c>
       <c r="O22" t="n">
-        <v>475.8277896871617</v>
+        <v>475.8277896871618</v>
       </c>
       <c r="P22" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="Q22" t="n">
-        <v>500.0144405318732</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="R22" t="n">
-        <v>500.0144405318732</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="S22" t="n">
-        <v>500.0144405318732</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="T22" t="n">
-        <v>500.0144405318732</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="U22" t="n">
-        <v>500.0144405318732</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="V22" t="n">
-        <v>500.0144405318732</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="W22" t="n">
-        <v>500.0144405318732</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="X22" t="n">
-        <v>500.0144405318732</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="Y22" t="n">
-        <v>500.0144405318732</v>
+        <v>306.5911987406838</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2149.375138862102</v>
+        <v>1611.619444146874</v>
       </c>
       <c r="C23" t="n">
-        <v>1780.41262192169</v>
+        <v>1242.656927206462</v>
       </c>
       <c r="D23" t="n">
-        <v>1422.14692331494</v>
+        <v>884.3912285997114</v>
       </c>
       <c r="E23" t="n">
-        <v>1036.358670716696</v>
+        <v>498.6029760014672</v>
       </c>
       <c r="F23" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
@@ -6001,7 +6001,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6022,19 +6022,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U23" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V23" t="n">
-        <v>2535.974978926224</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W23" t="n">
-        <v>2535.974978926224</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X23" t="n">
-        <v>2535.974978926224</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2535.974978926224</v>
+        <v>1998.219284210995</v>
       </c>
     </row>
     <row r="24">
@@ -6050,10 +6050,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F24" t="n">
         <v>359.3385232961342</v>
@@ -6062,7 +6062,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036445</v>
@@ -6080,13 +6080,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
@@ -6174,16 +6174,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>563.9091713093267</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>563.9091713093267</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>274.7355609638946</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="V25" t="n">
-        <v>274.7355609638946</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="W25" t="n">
         <v>274.7355609638946</v>
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1135.888471323017</v>
+        <v>1125.191652989356</v>
       </c>
       <c r="C26" t="n">
-        <v>766.9259543826058</v>
+        <v>1125.191652989356</v>
       </c>
       <c r="D26" t="n">
         <v>766.9259543826058</v>
@@ -6220,19 +6220,19 @@
         <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U26" t="n">
-        <v>2212.181128500977</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V26" t="n">
-        <v>1899.493561559909</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W26" t="n">
-        <v>1899.493561559909</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X26" t="n">
-        <v>1526.027803298829</v>
+        <v>1515.330984965168</v>
       </c>
       <c r="Y26" t="n">
-        <v>1135.888471323017</v>
+        <v>1125.191652989356</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6344,10 +6344,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6414,22 +6414,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U28" t="n">
-        <v>438.9553738610022</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V28" t="n">
-        <v>343.360151857325</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1328.309493689272</v>
+        <v>927.7879015331887</v>
       </c>
       <c r="C29" t="n">
-        <v>959.3469767488602</v>
+        <v>927.7879015331887</v>
       </c>
       <c r="D29" t="n">
-        <v>959.3469767488602</v>
+        <v>927.7879015331887</v>
       </c>
       <c r="E29" t="n">
-        <v>959.3469767488602</v>
+        <v>927.7879015331887</v>
       </c>
       <c r="F29" t="n">
-        <v>548.3610719592527</v>
+        <v>516.8019967435812</v>
       </c>
       <c r="G29" t="n">
-        <v>130.3972638574396</v>
+        <v>98.83818864176806</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>98.83818864176806</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2478.514423990285</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V29" t="n">
-        <v>2478.514423990285</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W29" t="n">
-        <v>2478.514423990285</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X29" t="n">
-        <v>2105.048665729205</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y29" t="n">
-        <v>1714.909333753394</v>
+        <v>1314.38774159731</v>
       </c>
     </row>
     <row r="30">
@@ -6542,16 +6542,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
         <v>1748.695370517453</v>
@@ -6566,7 +6566,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
         <v>2488.762748073964</v>
@@ -6651,16 +6651,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>536.6170209242687</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U31" t="n">
-        <v>536.6170209242687</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V31" t="n">
-        <v>281.9325327183818</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W31" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X31" t="n">
         <v>53.94298182036445</v>
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1659.880644283887</v>
+        <v>1757.312204670902</v>
       </c>
       <c r="C32" t="n">
-        <v>1290.918127343475</v>
+        <v>1388.349687730491</v>
       </c>
       <c r="D32" t="n">
-        <v>932.6524287367247</v>
+        <v>1030.08398912374</v>
       </c>
       <c r="E32" t="n">
-        <v>546.8641761384804</v>
+        <v>1030.08398912374</v>
       </c>
       <c r="F32" t="n">
-        <v>135.8782713488728</v>
+        <v>619.0980843341326</v>
       </c>
       <c r="G32" t="n">
-        <v>135.8782713488728</v>
+        <v>201.1342762323195</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J32" t="n">
         <v>169.7108380533141</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U32" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V32" t="n">
-        <v>2423.485734520778</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W32" t="n">
-        <v>2423.485734520778</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="X32" t="n">
-        <v>2050.019976259699</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="Y32" t="n">
-        <v>1659.880644283887</v>
+        <v>1757.312204670902</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E33" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6818,10 +6818,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>211.4036268380754</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C34" t="n">
-        <v>211.4036268380754</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D34" t="n">
-        <v>211.4036268380754</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E34" t="n">
-        <v>211.4036268380754</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F34" t="n">
-        <v>211.4036268380754</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
@@ -6888,22 +6888,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>500.820796875036</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V34" t="n">
-        <v>500.820796875036</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W34" t="n">
-        <v>211.4036268380754</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X34" t="n">
-        <v>211.4036268380754</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y34" t="n">
-        <v>211.4036268380754</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1894.539591564834</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C35" t="n">
-        <v>1525.577074624423</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D35" t="n">
-        <v>1268.68094731003</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E35" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F35" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6970,19 +6970,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U35" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V35" t="n">
-        <v>2247.308246834948</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W35" t="n">
-        <v>1894.539591564834</v>
+        <v>1426.498002692507</v>
       </c>
       <c r="X35" t="n">
-        <v>1894.539591564834</v>
+        <v>1426.498002692507</v>
       </c>
       <c r="Y35" t="n">
-        <v>1894.539591564834</v>
+        <v>1036.358670716696</v>
       </c>
     </row>
     <row r="36">
@@ -7010,7 +7010,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
         <v>53.94298182036445</v>
@@ -7025,7 +7025,7 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
         <v>1748.695370517453</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>292.0654263630918</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H37" t="n">
         <v>53.94298182036445</v>
@@ -7131,16 +7131,16 @@
         <v>438.9553738610022</v>
       </c>
       <c r="V37" t="n">
-        <v>343.360151857325</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W37" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>882.8926947117851</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="C38" t="n">
-        <v>882.8926947117851</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="D38" t="n">
-        <v>882.8926947117851</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E38" t="n">
-        <v>882.8926947117851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F38" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U38" t="n">
-        <v>2224.752638628376</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V38" t="n">
-        <v>1893.689751284805</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W38" t="n">
-        <v>1893.689751284805</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X38" t="n">
-        <v>1659.631866751719</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y38" t="n">
-        <v>1269.492534775907</v>
+        <v>1331.061315312042</v>
       </c>
     </row>
     <row r="39">
@@ -7235,43 +7235,43 @@
         <v>814.0449459359555</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F39" t="n">
         <v>359.3385232961338</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>149.5382038240415</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="C40" t="n">
-        <v>149.5382038240415</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="D40" t="n">
-        <v>149.5382038240415</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5382038240415</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="F40" t="n">
-        <v>149.5382038240415</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036444</v>
+        <v>269.9555735993346</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036444</v>
+        <v>112.2072010318647</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7371,13 +7371,13 @@
         <v>438.9553738610022</v>
       </c>
       <c r="W40" t="n">
-        <v>149.5382038240415</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X40" t="n">
-        <v>149.5382038240415</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y40" t="n">
-        <v>149.5382038240415</v>
+        <v>438.9553738610022</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1577.945354755378</v>
+        <v>1099.292566481063</v>
       </c>
       <c r="C41" t="n">
-        <v>1208.982837814967</v>
+        <v>1099.292566481063</v>
       </c>
       <c r="D41" t="n">
-        <v>850.7171392082162</v>
+        <v>741.0268678743123</v>
       </c>
       <c r="E41" t="n">
-        <v>464.928886609972</v>
+        <v>741.0268678743123</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036444</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533135</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.961649073312</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224068</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
         <v>1836.345445977174</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018222</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W41" t="n">
-        <v>2344.380435748108</v>
+        <v>1485.892406545184</v>
       </c>
       <c r="X41" t="n">
-        <v>1970.914677487028</v>
+        <v>1485.892406545184</v>
       </c>
       <c r="Y41" t="n">
-        <v>1964.5451948195</v>
+        <v>1485.892406545184</v>
       </c>
     </row>
     <row r="42">
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F42" t="n">
         <v>359.3385232961344</v>
@@ -7499,7 +7499,7 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N42" t="n">
         <v>1748.695370517452</v>
@@ -7514,25 +7514,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>348.7460229006679</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="C43" t="n">
-        <v>348.7460229006679</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="D43" t="n">
-        <v>348.7460229006679</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="E43" t="n">
-        <v>200.8329293182748</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036444</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036444</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H43" t="n">
         <v>53.94298182036444</v>
@@ -7602,19 +7602,19 @@
         <v>500.820796875036</v>
       </c>
       <c r="U43" t="n">
-        <v>348.7460229006679</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V43" t="n">
-        <v>348.7460229006679</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W43" t="n">
-        <v>348.7460229006679</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X43" t="n">
-        <v>348.7460229006679</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="Y43" t="n">
-        <v>348.7460229006679</v>
+        <v>272.8312459770186</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>882.8926947117851</v>
+        <v>1684.117239186542</v>
       </c>
       <c r="C44" t="n">
-        <v>882.8926947117851</v>
+        <v>1684.117239186542</v>
       </c>
       <c r="D44" t="n">
-        <v>882.8926947117851</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E44" t="n">
-        <v>882.8926947117851</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F44" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036444</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533135</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.961649073312</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224068</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
         <v>1836.345445977174</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T44" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U44" t="n">
-        <v>2224.752638628376</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V44" t="n">
-        <v>1893.689751284805</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W44" t="n">
-        <v>1646.497784948677</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X44" t="n">
-        <v>1273.032026687597</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="Y44" t="n">
-        <v>882.8926947117851</v>
+        <v>2070.717079250664</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
         <v>53.94298182036444</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
@@ -7757,19 +7757,19 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
         <v>1156.713312237151</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036444</v>
+        <v>370.8558756644251</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036444</v>
+        <v>370.8558756644251</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036444</v>
+        <v>370.8558756644251</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G46" t="n">
         <v>53.94298182036444</v>
@@ -7833,25 +7833,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>370.8558756644251</v>
       </c>
       <c r="U46" t="n">
-        <v>598.0446400632119</v>
+        <v>370.8558756644251</v>
       </c>
       <c r="V46" t="n">
-        <v>343.360151857325</v>
+        <v>370.8558756644251</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036444</v>
+        <v>370.8558756644251</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036444</v>
+        <v>370.8558756644251</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036444</v>
+        <v>370.8558756644251</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8063,22 +8063,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>238.6269471880057</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,10 +8297,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3577389147212</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8309,13 +8309,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,19 +8540,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>242.4075215744184</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>75.77844388033752</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>172.4310032247001</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8783,13 +8783,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>112.4340254180254</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.99581912509471</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>75.77844388033752</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9020,13 +9020,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>112.4340254180253</v>
       </c>
       <c r="P15" t="n">
-        <v>226.4285348520587</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.99581912509471</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>75.77844388033752</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9254,16 +9254,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>197.9140804848498</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>226.4285348520587</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.99581912509471</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>75.77844388033751</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>50.57316300554223</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,13 +9491,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>197.9140804848494</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>301.2391402483408</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9962,7 +9962,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>346.2692436516219</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>435.9238900028826</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10436,10 +10436,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028821</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10673,10 +10673,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N36" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>359.9065542451752</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720731</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11077,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714823</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11147,10 +11147,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093287</v>
       </c>
       <c r="N42" t="n">
-        <v>435.9238900028821</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720731</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>359.9065542451752</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>162.9782053421103</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22591,13 +22591,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>6.725383157348171</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22612,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22628,13 +22628,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>84.58157038459437</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>86.99651130768093</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22679,7 +22679,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22688,10 +22688,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22764,10 +22764,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W4" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>330.3082731757329</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22795,13 +22795,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -22834,10 +22834,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22849,10 +22849,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>267.3928735857801</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22868,7 +22868,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22880,13 +22880,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22913,25 +22913,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>14.04035595609741</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>201.511342836838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22992,7 +22992,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23007,7 +23007,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23023,16 +23023,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
@@ -23065,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>230.1618975371121</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23108,7 +23108,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23150,16 +23150,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>10.68069428326055</v>
@@ -23168,7 +23168,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>171.0220216300238</v>
+        <v>66.63836601875769</v>
       </c>
     </row>
     <row r="10">
@@ -23263,22 +23263,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>38.41483458245904</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>290.0777972050404</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>171.5352284535379</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>86.42041023393331</v>
       </c>
       <c r="S11" t="n">
         <v>186.0031364379248</v>
@@ -23317,7 +23317,7 @@
         <v>251.2648474376504</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23348,7 +23348,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>39.26398436505731</v>
       </c>
       <c r="G12" t="n">
         <v>136.8030829366063</v>
@@ -23357,7 +23357,7 @@
         <v>107.0159873637655</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>70.78957724245151</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>66.60350559207139</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23393,13 +23393,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>150.075826782973</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23460,13 +23460,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.22261241385099</v>
+        <v>48.22261241385098</v>
       </c>
       <c r="R13" t="n">
         <v>156.9211815276446</v>
       </c>
       <c r="S13" t="n">
-        <v>216.1206161765721</v>
+        <v>187.4960234412266</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>286.2943157982424</v>
       </c>
       <c r="V13" t="n">
-        <v>223.5130505884825</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>414.2926691378088</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>329.1304393464753</v>
       </c>
       <c r="I14" t="n">
         <v>171.5352284535379</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>86.42041023393332</v>
+        <v>86.4204102339333</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>186.0031364379248</v>
       </c>
       <c r="T14" t="n">
         <v>218.674275242386</v>
       </c>
       <c r="U14" t="n">
-        <v>170.4681325479744</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>164.6025438219644</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23576,16 +23576,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>125.0477576137983</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -23633,13 +23633,13 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>194.9614633131579</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.22261241385099</v>
+        <v>48.22261241385098</v>
       </c>
       <c r="R16" t="n">
         <v>156.9211815276446</v>
@@ -23709,13 +23709,13 @@
         <v>226.0096940321479</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2943157982424</v>
+        <v>92.47337197830285</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>58.31669950388843</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>79.15954060009688</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>414.2926691378088</v>
@@ -23779,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>86.42041023393332</v>
+        <v>86.4204102339333</v>
       </c>
       <c r="S17" t="n">
         <v>186.0031364379248</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.674275242386</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2648474376504</v>
+        <v>83.69931275256332</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23825,7 +23825,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.8030829366063</v>
+        <v>55.54617103541102</v>
       </c>
       <c r="H18" t="n">
         <v>107.0159873637655</v>
@@ -23876,10 +23876,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>124.4257838761095</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.22261241385099</v>
+        <v>48.22261241385098</v>
       </c>
       <c r="R19" t="n">
         <v>156.9211815276446</v>
@@ -23943,19 +23943,19 @@
         <v>216.1206161765721</v>
       </c>
       <c r="T19" t="n">
-        <v>226.0096940321479</v>
+        <v>223.5130505884825</v>
       </c>
       <c r="U19" t="n">
-        <v>92.47337197830285</v>
+        <v>286.2943157982424</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23971,13 +23971,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23986,7 +23986,7 @@
         <v>414.2926691378088</v>
       </c>
       <c r="H20" t="n">
-        <v>329.1304393464753</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>171.5352284535379</v>
@@ -24016,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>86.4204102339333</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>186.0031364379248</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>153.9430320200017</v>
       </c>
       <c r="V20" t="n">
-        <v>140.5153908505582</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24053,16 +24053,16 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>145.8897551325925</v>
       </c>
       <c r="E21" t="n">
-        <v>60.34422288188713</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.8030829366063</v>
       </c>
       <c r="H21" t="n">
         <v>107.0159873637655</v>
@@ -24098,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>161.6448423772186</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24113,7 +24113,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24126,31 +24126,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.537897457236</v>
+        <v>85.61058883473736</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>158.1988625129318</v>
       </c>
       <c r="I22" t="n">
         <v>141.8250664795777</v>
       </c>
       <c r="J22" t="n">
-        <v>61.32628970022417</v>
+        <v>61.32628970022416</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>21.12696843503389</v>
+        <v>48.22261241385097</v>
       </c>
       <c r="R22" t="n">
         <v>156.9211815276446</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24217,7 +24217,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>380.4468215232147</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,10 +24262,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>222.6682900738684</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24414,19 +24414,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>49.56792418188243</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>123.9453835684545</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24445,10 +24445,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24490,10 +24490,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
         <v>216.4483203576578</v>
@@ -24502,13 +24502,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>18.19156719847797</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>127.9485703817827</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24654,16 +24654,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>248.2330335476527</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>107.4850614916717</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24891,19 +24891,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>35.43826180874041</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24925,16 +24925,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>242.8068361311339</v>
+        <v>178.2033912965216</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24976,13 +24976,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>11.42376369151714</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25128,13 +25128,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25156,13 +25156,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>100.3558755794337</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,19 +25210,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>115.6152529948203</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25323,13 +25323,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>87.73947100354603</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>134.9656217923382</v>
@@ -25371,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>251.3233233279862</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25438,13 +25438,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25453,13 +25453,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>138.0137949907132</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25563,16 +25563,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>72.67053247541058</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923383</v>
+        <v>77.28404477295297</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25630,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>202.5170875575215</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>379.9321508152011</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25794,16 +25794,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>106.7813095857584</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>134.9656217923383</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>135.7278480073534</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25851,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>37.32483159989232</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25921,19 +25921,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>104.5209220446457</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25997,7 +25997,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26031,13 +26031,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26073,19 +26073,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>83.48026695151421</v>
       </c>
       <c r="U46" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>473915.1863847286</v>
+        <v>473915.1863847285</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>684080.3090986863</v>
+        <v>684080.3090986864</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>684080.3090986862</v>
+        <v>684080.3090986863</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>684080.3090986863</v>
+        <v>684080.3090986866</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>684080.3090986864</v>
+        <v>684080.3090986866</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>790486.6127519928</v>
+        <v>790486.6127519927</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>790486.6127519927</v>
+        <v>790486.6127519928</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>790486.6127519927</v>
+        <v>790486.6127519929</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>790486.6127519929</v>
+        <v>790486.6127519928</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>790486.6127519927</v>
+        <v>790486.6127519928</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>157852.6389047658</v>
+        <v>157852.6389047657</v>
       </c>
       <c r="C2" t="n">
         <v>157852.6389047657</v>
@@ -26322,40 +26322,40 @@
         <v>157852.6389047657</v>
       </c>
       <c r="E2" t="n">
-        <v>235437.2422819576</v>
+        <v>235437.2422819575</v>
       </c>
       <c r="F2" t="n">
         <v>235437.2422819575</v>
       </c>
       <c r="G2" t="n">
-        <v>235437.2422819575</v>
+        <v>235437.2422819576</v>
       </c>
       <c r="H2" t="n">
-        <v>235437.2422819575</v>
+        <v>235437.2422819576</v>
       </c>
       <c r="I2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="J2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="K2" t="n">
+        <v>274694.9795149699</v>
+      </c>
+      <c r="L2" t="n">
         <v>274694.9795149697</v>
       </c>
-      <c r="L2" t="n">
-        <v>274694.9795149695</v>
-      </c>
       <c r="M2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="N2" t="n">
         <v>274694.9795149696</v>
       </c>
       <c r="O2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="P2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149698</v>
       </c>
     </row>
     <row r="3">
@@ -26380,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.32519718148824e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>134288.7015116922</v>
+        <v>134288.7015116921</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910619</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26432,7 +26432,7 @@
         <v>52516.94845541665</v>
       </c>
       <c r="G4" t="n">
-        <v>52516.94845541665</v>
+        <v>52516.94845541666</v>
       </c>
       <c r="H4" t="n">
         <v>52516.94845541666</v>
@@ -26456,10 +26456,10 @@
         <v>53660.56571087037</v>
       </c>
       <c r="O4" t="n">
-        <v>53660.56571087036</v>
+        <v>53660.56571087037</v>
       </c>
       <c r="P4" t="n">
-        <v>53660.56571087036</v>
+        <v>53660.56571087037</v>
       </c>
     </row>
     <row r="5">
@@ -26484,10 +26484,10 @@
         <v>37540.13459730638</v>
       </c>
       <c r="G5" t="n">
-        <v>37540.13459730638</v>
+        <v>37540.13459730639</v>
       </c>
       <c r="H5" t="n">
-        <v>37540.13459730638</v>
+        <v>37540.13459730639</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33801.07593811867</v>
+        <v>-22804.86638008227</v>
       </c>
       <c r="C6" t="n">
-        <v>46968.35559342902</v>
+        <v>57964.56515146547</v>
       </c>
       <c r="D6" t="n">
-        <v>46968.35559342905</v>
+        <v>57964.56515146547</v>
       </c>
       <c r="E6" t="n">
-        <v>-150106.1612264845</v>
+        <v>-142785.0118284204</v>
       </c>
       <c r="F6" t="n">
-        <v>137245.548786941</v>
+        <v>144566.6981850051</v>
       </c>
       <c r="G6" t="n">
-        <v>137245.548786941</v>
+        <v>144566.6981850051</v>
       </c>
       <c r="H6" t="n">
-        <v>137245.548786941</v>
+        <v>144566.6981850052</v>
       </c>
       <c r="I6" t="n">
-        <v>31445.82048317845</v>
+        <v>36907.39285441588</v>
       </c>
       <c r="J6" t="n">
-        <v>102674.5793957644</v>
+        <v>108136.1517670018</v>
       </c>
       <c r="K6" t="n">
-        <v>165734.5219948707</v>
+        <v>171196.0943661081</v>
       </c>
       <c r="L6" t="n">
-        <v>165734.5219948705</v>
+        <v>171196.094366108</v>
       </c>
       <c r="M6" t="n">
-        <v>94378.90147615978</v>
+        <v>99840.47384739717</v>
       </c>
       <c r="N6" t="n">
-        <v>165734.5219948706</v>
+        <v>171196.0943661079</v>
       </c>
       <c r="O6" t="n">
-        <v>165734.5219948707</v>
+        <v>171196.0943661081</v>
       </c>
       <c r="P6" t="n">
-        <v>165734.5219948705</v>
+        <v>171196.0943661081</v>
       </c>
     </row>
   </sheetData>
@@ -26755,7 +26755,7 @@
         <v>251.2545088598901</v>
       </c>
       <c r="H3" t="n">
-        <v>251.2545088598901</v>
+        <v>251.2545088598902</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26804,28 +26804,28 @@
         <v>527.3484589500127</v>
       </c>
       <c r="G4" t="n">
-        <v>527.3484589500127</v>
+        <v>527.3484589500129</v>
       </c>
       <c r="H4" t="n">
-        <v>527.3484589500127</v>
+        <v>527.3484589500129</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
         <v>674.2872727545555</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>126.4891553571966</v>
+        <v>126.4891553571965</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27026,16 +27026,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1.213199256248332e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>146.9388138045429</v>
+        <v>146.9388138045427</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.213199256248332e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31758,10 +31758,10 @@
         <v>10.34436276929185</v>
       </c>
       <c r="I11" t="n">
-        <v>38.94066111686799</v>
+        <v>38.940661116868</v>
       </c>
       <c r="J11" t="n">
-        <v>85.72829094008883</v>
+        <v>85.72829094008884</v>
       </c>
       <c r="K11" t="n">
         <v>128.4844853523065</v>
@@ -31785,16 +31785,16 @@
         <v>109.0760214819837</v>
       </c>
       <c r="R11" t="n">
-        <v>63.44870770721636</v>
+        <v>63.44870770721637</v>
       </c>
       <c r="S11" t="n">
         <v>23.01693314832059</v>
       </c>
       <c r="T11" t="n">
-        <v>4.421574321745401</v>
+        <v>4.421574321745402</v>
       </c>
       <c r="U11" t="n">
-        <v>0.08080547018609521</v>
+        <v>0.08080547018609523</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,16 +31834,16 @@
         <v>0.5404342266042919</v>
       </c>
       <c r="H12" t="n">
-        <v>5.219456872730924</v>
+        <v>5.219456872730925</v>
       </c>
       <c r="I12" t="n">
         <v>18.60705560896356</v>
       </c>
       <c r="J12" t="n">
-        <v>51.05918278632917</v>
+        <v>51.05918278632918</v>
       </c>
       <c r="K12" t="n">
-        <v>87.26827596881672</v>
+        <v>87.26827596881674</v>
       </c>
       <c r="L12" t="n">
         <v>117.3429666142345</v>
@@ -31870,7 +31870,7 @@
         <v>10.03832872661919</v>
       </c>
       <c r="T12" t="n">
-        <v>2.17832918530414</v>
+        <v>2.178329185304141</v>
       </c>
       <c r="U12" t="n">
         <v>0.03555488332922974</v>
@@ -31928,13 +31928,13 @@
         <v>67.36092193269906</v>
       </c>
       <c r="M13" t="n">
-        <v>71.02264747985382</v>
+        <v>71.02264747985383</v>
       </c>
       <c r="N13" t="n">
         <v>69.33388766620544</v>
       </c>
       <c r="O13" t="n">
-        <v>64.04106727464871</v>
+        <v>64.04106727464873</v>
       </c>
       <c r="P13" t="n">
         <v>54.79819648970452</v>
@@ -31946,10 +31946,10 @@
         <v>20.37220984952485</v>
       </c>
       <c r="S13" t="n">
-        <v>7.895981860400147</v>
+        <v>7.895981860400148</v>
       </c>
       <c r="T13" t="n">
-        <v>1.935895396133578</v>
+        <v>1.935895396133579</v>
       </c>
       <c r="U13" t="n">
         <v>0.0247135582485138</v>
@@ -31989,28 +31989,28 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.01006837732619</v>
+        <v>1.010068377326191</v>
       </c>
       <c r="H14" t="n">
         <v>10.34436276929185</v>
       </c>
       <c r="I14" t="n">
-        <v>38.94066111686799</v>
+        <v>38.940661116868</v>
       </c>
       <c r="J14" t="n">
-        <v>85.72829094008883</v>
+        <v>85.72829094008885</v>
       </c>
       <c r="K14" t="n">
         <v>128.4844853523065</v>
       </c>
       <c r="L14" t="n">
-        <v>159.3963654549029</v>
+        <v>159.396365454903</v>
       </c>
       <c r="M14" t="n">
         <v>177.3591689601776</v>
       </c>
       <c r="N14" t="n">
-        <v>180.2290257372556</v>
+        <v>180.2290257372557</v>
       </c>
       <c r="O14" t="n">
         <v>170.1851583102183</v>
@@ -32022,16 +32022,16 @@
         <v>109.0760214819837</v>
       </c>
       <c r="R14" t="n">
-        <v>63.44870770721636</v>
+        <v>63.44870770721638</v>
       </c>
       <c r="S14" t="n">
         <v>23.01693314832059</v>
       </c>
       <c r="T14" t="n">
-        <v>4.421574321745401</v>
+        <v>4.421574321745402</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08080547018609521</v>
+        <v>0.08080547018609524</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5404342266042919</v>
+        <v>0.540434226604292</v>
       </c>
       <c r="H15" t="n">
-        <v>5.219456872730924</v>
+        <v>5.219456872730926</v>
       </c>
       <c r="I15" t="n">
         <v>18.60705560896356</v>
       </c>
       <c r="J15" t="n">
-        <v>51.05918278632917</v>
+        <v>51.05918278632919</v>
       </c>
       <c r="K15" t="n">
-        <v>87.26827596881672</v>
+        <v>87.26827596881674</v>
       </c>
       <c r="L15" t="n">
         <v>117.3429666142345</v>
@@ -32089,16 +32089,16 @@
         <v>136.9337073286401</v>
       </c>
       <c r="N15" t="n">
-        <v>140.5579351026662</v>
+        <v>140.5579351026663</v>
       </c>
       <c r="O15" t="n">
         <v>128.5830503973817</v>
       </c>
       <c r="P15" t="n">
-        <v>103.1992340258669</v>
+        <v>103.199234025867</v>
       </c>
       <c r="Q15" t="n">
-        <v>68.9859549609268</v>
+        <v>68.98595496092682</v>
       </c>
       <c r="R15" t="n">
         <v>33.55432856057175</v>
@@ -32107,10 +32107,10 @@
         <v>10.03832872661919</v>
       </c>
       <c r="T15" t="n">
-        <v>2.17832918530414</v>
+        <v>2.178329185304141</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03555488332922974</v>
+        <v>0.03555488332922975</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,34 +32147,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4530819012227525</v>
+        <v>0.4530819012227526</v>
       </c>
       <c r="H16" t="n">
-        <v>4.028309994507748</v>
+        <v>4.028309994507749</v>
       </c>
       <c r="I16" t="n">
         <v>13.6254084476806</v>
       </c>
       <c r="J16" t="n">
-        <v>32.0328904164486</v>
+        <v>32.03289041644861</v>
       </c>
       <c r="K16" t="n">
         <v>52.63987906933433</v>
       </c>
       <c r="L16" t="n">
-        <v>67.36092193269906</v>
+        <v>67.36092193269907</v>
       </c>
       <c r="M16" t="n">
-        <v>71.02264747985382</v>
+        <v>71.02264747985384</v>
       </c>
       <c r="N16" t="n">
-        <v>69.33388766620544</v>
+        <v>69.33388766620546</v>
       </c>
       <c r="O16" t="n">
-        <v>64.04106727464871</v>
+        <v>64.04106727464873</v>
       </c>
       <c r="P16" t="n">
-        <v>54.79819648970452</v>
+        <v>54.79819648970453</v>
       </c>
       <c r="Q16" t="n">
         <v>37.9394308378434</v>
@@ -32183,13 +32183,13 @@
         <v>20.37220984952485</v>
       </c>
       <c r="S16" t="n">
-        <v>7.895981860400147</v>
+        <v>7.895981860400149</v>
       </c>
       <c r="T16" t="n">
-        <v>1.935895396133578</v>
+        <v>1.935895396133579</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0247135582485138</v>
+        <v>0.02471355824851381</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,28 +32226,28 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.01006837732619</v>
+        <v>1.010068377326191</v>
       </c>
       <c r="H17" t="n">
         <v>10.34436276929185</v>
       </c>
       <c r="I17" t="n">
-        <v>38.94066111686799</v>
+        <v>38.940661116868</v>
       </c>
       <c r="J17" t="n">
-        <v>85.72829094008883</v>
+        <v>85.72829094008885</v>
       </c>
       <c r="K17" t="n">
         <v>128.4844853523065</v>
       </c>
       <c r="L17" t="n">
-        <v>159.3963654549029</v>
+        <v>159.396365454903</v>
       </c>
       <c r="M17" t="n">
         <v>177.3591689601776</v>
       </c>
       <c r="N17" t="n">
-        <v>180.2290257372556</v>
+        <v>180.2290257372557</v>
       </c>
       <c r="O17" t="n">
         <v>170.1851583102183</v>
@@ -32259,16 +32259,16 @@
         <v>109.0760214819837</v>
       </c>
       <c r="R17" t="n">
-        <v>63.44870770721636</v>
+        <v>63.44870770721638</v>
       </c>
       <c r="S17" t="n">
         <v>23.01693314832059</v>
       </c>
       <c r="T17" t="n">
-        <v>4.421574321745401</v>
+        <v>4.421574321745402</v>
       </c>
       <c r="U17" t="n">
-        <v>0.08080547018609521</v>
+        <v>0.08080547018609524</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5404342266042919</v>
+        <v>0.540434226604292</v>
       </c>
       <c r="H18" t="n">
-        <v>5.219456872730924</v>
+        <v>5.219456872730926</v>
       </c>
       <c r="I18" t="n">
         <v>18.60705560896356</v>
       </c>
       <c r="J18" t="n">
-        <v>51.05918278632917</v>
+        <v>51.05918278632919</v>
       </c>
       <c r="K18" t="n">
-        <v>87.26827596881672</v>
+        <v>87.26827596881674</v>
       </c>
       <c r="L18" t="n">
         <v>117.3429666142345</v>
@@ -32326,16 +32326,16 @@
         <v>136.9337073286401</v>
       </c>
       <c r="N18" t="n">
-        <v>140.5579351026662</v>
+        <v>140.5579351026663</v>
       </c>
       <c r="O18" t="n">
         <v>128.5830503973817</v>
       </c>
       <c r="P18" t="n">
-        <v>103.1992340258669</v>
+        <v>103.199234025867</v>
       </c>
       <c r="Q18" t="n">
-        <v>68.9859549609268</v>
+        <v>68.98595496092682</v>
       </c>
       <c r="R18" t="n">
         <v>33.55432856057175</v>
@@ -32344,10 +32344,10 @@
         <v>10.03832872661919</v>
       </c>
       <c r="T18" t="n">
-        <v>2.17832918530414</v>
+        <v>2.178329185304141</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03555488332922974</v>
+        <v>0.03555488332922975</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,34 +32384,34 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4530819012227525</v>
+        <v>0.4530819012227526</v>
       </c>
       <c r="H19" t="n">
-        <v>4.028309994507748</v>
+        <v>4.028309994507749</v>
       </c>
       <c r="I19" t="n">
         <v>13.6254084476806</v>
       </c>
       <c r="J19" t="n">
-        <v>32.0328904164486</v>
+        <v>32.03289041644861</v>
       </c>
       <c r="K19" t="n">
         <v>52.63987906933433</v>
       </c>
       <c r="L19" t="n">
-        <v>67.36092193269906</v>
+        <v>67.36092193269907</v>
       </c>
       <c r="M19" t="n">
-        <v>71.02264747985382</v>
+        <v>71.02264747985384</v>
       </c>
       <c r="N19" t="n">
-        <v>69.33388766620544</v>
+        <v>69.33388766620546</v>
       </c>
       <c r="O19" t="n">
-        <v>64.04106727464871</v>
+        <v>64.04106727464873</v>
       </c>
       <c r="P19" t="n">
-        <v>54.79819648970452</v>
+        <v>54.79819648970453</v>
       </c>
       <c r="Q19" t="n">
         <v>37.9394308378434</v>
@@ -32420,13 +32420,13 @@
         <v>20.37220984952485</v>
       </c>
       <c r="S19" t="n">
-        <v>7.895981860400147</v>
+        <v>7.895981860400149</v>
       </c>
       <c r="T19" t="n">
-        <v>1.935895396133578</v>
+        <v>1.935895396133579</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0247135582485138</v>
+        <v>0.02471355824851381</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.01006837732619</v>
+        <v>1.010068377326191</v>
       </c>
       <c r="H20" t="n">
-        <v>10.34436276929185</v>
+        <v>10.34436276929186</v>
       </c>
       <c r="I20" t="n">
-        <v>38.940661116868</v>
+        <v>38.94066111686801</v>
       </c>
       <c r="J20" t="n">
-        <v>85.72829094008884</v>
+        <v>85.72829094008887</v>
       </c>
       <c r="K20" t="n">
-        <v>128.4844853523065</v>
+        <v>128.4844853523066</v>
       </c>
       <c r="L20" t="n">
-        <v>159.3963654549029</v>
+        <v>159.396365454903</v>
       </c>
       <c r="M20" t="n">
         <v>177.3591689601776</v>
       </c>
       <c r="N20" t="n">
-        <v>180.2290257372556</v>
+        <v>180.2290257372557</v>
       </c>
       <c r="O20" t="n">
-        <v>170.1851583102183</v>
+        <v>170.1851583102184</v>
       </c>
       <c r="P20" t="n">
         <v>145.249095244978</v>
       </c>
       <c r="Q20" t="n">
-        <v>109.0760214819837</v>
+        <v>109.0760214819838</v>
       </c>
       <c r="R20" t="n">
-        <v>63.44870770721637</v>
+        <v>63.44870770721639</v>
       </c>
       <c r="S20" t="n">
-        <v>23.01693314832059</v>
+        <v>23.0169331483206</v>
       </c>
       <c r="T20" t="n">
         <v>4.421574321745402</v>
       </c>
       <c r="U20" t="n">
-        <v>0.08080547018609523</v>
+        <v>0.08080547018609525</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5404342266042919</v>
+        <v>0.5404342266042921</v>
       </c>
       <c r="H21" t="n">
-        <v>5.219456872730925</v>
+        <v>5.219456872730927</v>
       </c>
       <c r="I21" t="n">
-        <v>18.60705560896356</v>
+        <v>18.60705560896357</v>
       </c>
       <c r="J21" t="n">
-        <v>51.05918278632918</v>
+        <v>51.0591827863292</v>
       </c>
       <c r="K21" t="n">
-        <v>87.26827596881674</v>
+        <v>87.26827596881677</v>
       </c>
       <c r="L21" t="n">
-        <v>117.3429666142345</v>
+        <v>117.3429666142346</v>
       </c>
       <c r="M21" t="n">
         <v>136.9337073286401</v>
       </c>
       <c r="N21" t="n">
-        <v>140.5579351026662</v>
+        <v>140.5579351026663</v>
       </c>
       <c r="O21" t="n">
         <v>128.5830503973817</v>
       </c>
       <c r="P21" t="n">
-        <v>103.1992340258669</v>
+        <v>103.199234025867</v>
       </c>
       <c r="Q21" t="n">
-        <v>68.9859549609268</v>
+        <v>68.98595496092683</v>
       </c>
       <c r="R21" t="n">
-        <v>33.55432856057175</v>
+        <v>33.55432856057176</v>
       </c>
       <c r="S21" t="n">
         <v>10.03832872661919</v>
       </c>
       <c r="T21" t="n">
-        <v>2.178329185304141</v>
+        <v>2.178329185304142</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03555488332922974</v>
+        <v>0.03555488332922976</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4530819012227525</v>
+        <v>0.4530819012227527</v>
       </c>
       <c r="H22" t="n">
-        <v>4.028309994507748</v>
+        <v>4.02830999450775</v>
       </c>
       <c r="I22" t="n">
         <v>13.6254084476806</v>
       </c>
       <c r="J22" t="n">
-        <v>32.0328904164486</v>
+        <v>32.03289041644862</v>
       </c>
       <c r="K22" t="n">
-        <v>52.63987906933433</v>
+        <v>52.63987906933435</v>
       </c>
       <c r="L22" t="n">
-        <v>67.36092193269906</v>
+        <v>67.36092193269909</v>
       </c>
       <c r="M22" t="n">
-        <v>71.02264747985383</v>
+        <v>71.02264747985386</v>
       </c>
       <c r="N22" t="n">
-        <v>69.33388766620544</v>
+        <v>69.33388766620547</v>
       </c>
       <c r="O22" t="n">
-        <v>64.04106727464873</v>
+        <v>64.04106727464874</v>
       </c>
       <c r="P22" t="n">
-        <v>54.79819648970452</v>
+        <v>54.79819648970454</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.9394308378434</v>
+        <v>37.93943083784341</v>
       </c>
       <c r="R22" t="n">
-        <v>20.37220984952485</v>
+        <v>20.37220984952486</v>
       </c>
       <c r="S22" t="n">
-        <v>7.895981860400148</v>
+        <v>7.895981860400151</v>
       </c>
       <c r="T22" t="n">
         <v>1.935895396133579</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0247135582485138</v>
+        <v>0.02471355824851381</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33909,22 +33909,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33997,16 +33997,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34067,13 +34067,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34082,7 +34082,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34713,7 +34713,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34783,22 +34783,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>104.6525397736754</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35029,13 +35029,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
       <c r="O9" t="n">
-        <v>99.8112771299739</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.77900158547631</v>
+        <v>73.77900158547632</v>
       </c>
       <c r="K11" t="n">
         <v>232.5400468784907</v>
@@ -35424,13 +35424,13 @@
         <v>388.1628865526488</v>
       </c>
       <c r="O11" t="n">
-        <v>320.8871281512769</v>
+        <v>320.887128151277</v>
       </c>
       <c r="P11" t="n">
         <v>235.8148076611911</v>
       </c>
       <c r="Q11" t="n">
-        <v>99.08532226743891</v>
+        <v>99.08532226743893</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>50.31259146007132</v>
       </c>
       <c r="K12" t="n">
-        <v>121.8578402191578</v>
+        <v>213.8920740070363</v>
       </c>
       <c r="L12" t="n">
         <v>349.6289321378195</v>
@@ -35503,13 +35503,13 @@
         <v>488.5585973628865</v>
       </c>
       <c r="O12" t="n">
-        <v>379.8491252296668</v>
+        <v>98.4208313709626</v>
       </c>
       <c r="P12" t="n">
         <v>287.6875952514739</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>139.0814686107544</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35582,10 +35582,10 @@
         <v>113.466060045434</v>
       </c>
       <c r="O13" t="n">
-        <v>88.62619518868838</v>
+        <v>88.6261951886884</v>
       </c>
       <c r="P13" t="n">
-        <v>52.076755754598</v>
+        <v>52.07675575459801</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.77900158547631</v>
+        <v>73.77900158547634</v>
       </c>
       <c r="K14" t="n">
         <v>232.5400468784907</v>
@@ -35655,19 +35655,19 @@
         <v>341.2911650353661</v>
       </c>
       <c r="M14" t="n">
-        <v>396.5264692257373</v>
+        <v>396.5264692257374</v>
       </c>
       <c r="N14" t="n">
-        <v>388.1628865526488</v>
+        <v>388.1628865526489</v>
       </c>
       <c r="O14" t="n">
-        <v>320.8871281512769</v>
+        <v>320.887128151277</v>
       </c>
       <c r="P14" t="n">
         <v>235.8148076611911</v>
       </c>
       <c r="Q14" t="n">
-        <v>99.08532226743891</v>
+        <v>99.08532226743894</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>50.31259146007133</v>
       </c>
       <c r="K15" t="n">
         <v>213.8920740070363</v>
       </c>
       <c r="L15" t="n">
-        <v>349.6289321378195</v>
+        <v>349.6289321378196</v>
       </c>
       <c r="M15" t="n">
         <v>460.5047371566217</v>
@@ -35740,13 +35740,13 @@
         <v>488.5585973628865</v>
       </c>
       <c r="O15" t="n">
-        <v>379.8491252296668</v>
+        <v>98.4208313709626</v>
       </c>
       <c r="P15" t="n">
-        <v>195.6533614635954</v>
+        <v>287.6875952514739</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>139.0814686107544</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35810,7 +35810,7 @@
         <v>30.37038724345148</v>
       </c>
       <c r="L16" t="n">
-        <v>94.9509471930152</v>
+        <v>94.95094719301521</v>
       </c>
       <c r="M16" t="n">
         <v>110.6065244416944</v>
@@ -35819,10 +35819,10 @@
         <v>113.466060045434</v>
       </c>
       <c r="O16" t="n">
-        <v>88.62619518868838</v>
+        <v>88.6261951886884</v>
       </c>
       <c r="P16" t="n">
-        <v>52.076755754598</v>
+        <v>52.07675575459802</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.77900158547631</v>
+        <v>73.77900158547634</v>
       </c>
       <c r="K17" t="n">
         <v>232.5400468784907</v>
@@ -35892,19 +35892,19 @@
         <v>341.2911650353661</v>
       </c>
       <c r="M17" t="n">
-        <v>396.5264692257373</v>
+        <v>396.5264692257374</v>
       </c>
       <c r="N17" t="n">
-        <v>388.1628865526488</v>
+        <v>388.1628865526489</v>
       </c>
       <c r="O17" t="n">
-        <v>320.8871281512769</v>
+        <v>320.887128151277</v>
       </c>
       <c r="P17" t="n">
         <v>235.8148076611911</v>
       </c>
       <c r="Q17" t="n">
-        <v>99.08532226743891</v>
+        <v>99.08532226743894</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>50.31259146007133</v>
       </c>
       <c r="K18" t="n">
         <v>213.8920740070363</v>
       </c>
       <c r="L18" t="n">
-        <v>349.6289321378195</v>
+        <v>349.6289321378196</v>
       </c>
       <c r="M18" t="n">
         <v>460.5047371566217</v>
       </c>
       <c r="N18" t="n">
-        <v>488.5585973628865</v>
+        <v>207.1303035041828</v>
       </c>
       <c r="O18" t="n">
         <v>379.8491252296668</v>
       </c>
       <c r="P18" t="n">
-        <v>195.6533614635954</v>
+        <v>287.6875952514739</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>139.0814686107544</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36047,7 +36047,7 @@
         <v>30.37038724345148</v>
       </c>
       <c r="L19" t="n">
-        <v>94.9509471930152</v>
+        <v>94.95094719301521</v>
       </c>
       <c r="M19" t="n">
         <v>110.6065244416944</v>
@@ -36056,10 +36056,10 @@
         <v>113.466060045434</v>
       </c>
       <c r="O19" t="n">
-        <v>88.62619518868838</v>
+        <v>88.6261951886884</v>
       </c>
       <c r="P19" t="n">
-        <v>52.076755754598</v>
+        <v>52.07675575459802</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>73.77900158547632</v>
+        <v>73.77900158547635</v>
       </c>
       <c r="K20" t="n">
-        <v>232.5400468784907</v>
+        <v>232.5400468784908</v>
       </c>
       <c r="L20" t="n">
-        <v>341.2911650353661</v>
+        <v>341.2911650353662</v>
       </c>
       <c r="M20" t="n">
-        <v>396.5264692257373</v>
+        <v>396.5264692257374</v>
       </c>
       <c r="N20" t="n">
-        <v>388.1628865526488</v>
+        <v>388.162886552649</v>
       </c>
       <c r="O20" t="n">
         <v>320.887128151277</v>
@@ -36141,7 +36141,7 @@
         <v>235.8148076611911</v>
       </c>
       <c r="Q20" t="n">
-        <v>99.08532226743893</v>
+        <v>99.08532226743897</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>50.31259146007132</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>213.8920740070363</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>349.6289321378195</v>
+        <v>349.6289321378196</v>
       </c>
       <c r="M21" t="n">
         <v>460.5047371566217</v>
       </c>
       <c r="N21" t="n">
-        <v>207.1303035041824</v>
+        <v>488.5585973628865</v>
       </c>
       <c r="O21" t="n">
         <v>379.8491252296668</v>
       </c>
       <c r="P21" t="n">
-        <v>287.6875952514739</v>
+        <v>270.4639668598775</v>
       </c>
       <c r="Q21" t="n">
         <v>139.0814686107544</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>30.37038724345148</v>
+        <v>30.3703872434515</v>
       </c>
       <c r="L22" t="n">
-        <v>94.9509471930152</v>
+        <v>94.95094719301522</v>
       </c>
       <c r="M22" t="n">
         <v>110.6065244416944</v>
       </c>
       <c r="N22" t="n">
-        <v>113.466060045434</v>
+        <v>113.4660600454341</v>
       </c>
       <c r="O22" t="n">
-        <v>88.6261951886884</v>
+        <v>88.62619518868841</v>
       </c>
       <c r="P22" t="n">
-        <v>52.07675575459801</v>
+        <v>52.07675575459803</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36448,7 +36448,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
@@ -36457,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36682,7 +36682,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
-        <v>410.0055067279158</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
         <v>559.3197334338902</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
         <v>297.2230414343419</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36922,7 +36922,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>515.9012490932192</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37156,10 +37156,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M33" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932188</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
@@ -37393,10 +37393,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M36" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N36" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K38" t="n">
         <v>297.2230414343419</v>
@@ -37557,10 +37557,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37633,16 +37633,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37718,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181304</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
         <v>297.2230414343419</v>
@@ -37797,7 +37797,7 @@
         <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116794</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37867,10 +37867,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856226</v>
       </c>
       <c r="N42" t="n">
-        <v>515.9012490932188</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245897</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181304</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
         <v>297.2230414343419</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38107,7 +38107,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245897</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
